--- a/FinalProject/Analysis_Carpenter/Example Functions/Portfolio Opt. Real World Data.xlsx
+++ b/FinalProject/Analysis_Carpenter/Example Functions/Portfolio Opt. Real World Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive - University of Oklahoma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\DScourseS20\FinalProject\Analysis_Carpenter\Example Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3551" documentId="8_{B6DB92FA-B744-4E3F-AF42-2725CA60EEF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{62F39A26-58DC-498F-BD23-0CCD0ECA697C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD32FA-C02A-43BA-8159-48801D693DBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6E0FF362-F7E2-4986-8190-DAF7F8611905}"/>
+    <workbookView xWindow="-22597" yWindow="-3773" windowWidth="22695" windowHeight="14596" xr2:uid="{6E0FF362-F7E2-4986-8190-DAF7F8611905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1392,27 +1392,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF185326-3EE2-4FB5-A2D7-CC74E2DCC064}">
   <dimension ref="A9:AE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P23" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38"/>
+    <sheetView tabSelected="1" topLeftCell="H26" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.9296875" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="6" width="8.9296875" style="2" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="6" width="9" style="2" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.73046875" customWidth="1"/>
-    <col min="23" max="25" width="10.6640625" customWidth="1"/>
-    <col min="26" max="26" width="20.59765625" customWidth="1"/>
-    <col min="27" max="27" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="23" max="27" width="10.7109375" customWidth="1"/>
+    <col min="30" max="30" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="9:31" x14ac:dyDescent="0.45">
+    <row r="9" spans="9:31" x14ac:dyDescent="0.25">
       <c r="Z9" s="44" t="s">
         <v>35</v>
       </c>
@@ -1420,7 +1418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I10" s="7" t="s">
         <v>7</v>
       </c>
@@ -1456,7 +1454,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I11" s="6" t="s">
         <v>0</v>
       </c>
@@ -1527,7 +1525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I12" s="24">
         <v>39052</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I13" s="25">
         <f>EOMONTH(I12,11)+1</f>
         <v>39417</v>
@@ -1634,7 +1632,7 @@
         <v>-2.0558778301284011E-2</v>
       </c>
     </row>
-    <row r="14" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I14" s="25">
         <f t="shared" ref="I14:I24" si="16">EOMONTH(I13,11)+1</f>
         <v>39783</v>
@@ -1700,7 +1698,7 @@
         <v>0.33908719513023616</v>
       </c>
     </row>
-    <row r="15" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I15" s="25">
         <f t="shared" si="16"/>
         <v>40148</v>
@@ -1766,7 +1764,7 @@
         <v>-0.12691781580037059</v>
       </c>
     </row>
-    <row r="16" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="9:31" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I16" s="25">
         <f t="shared" si="16"/>
         <v>40513</v>
@@ -1832,7 +1830,7 @@
         <v>-3.3725920920937583E-2</v>
       </c>
     </row>
-    <row r="17" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I17" s="25">
         <f t="shared" si="16"/>
         <v>40878</v>
@@ -1898,7 +1896,7 @@
         <v>7.0768775591025276E-2</v>
       </c>
     </row>
-    <row r="18" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I18" s="25">
         <f t="shared" si="16"/>
         <v>41244</v>
@@ -1964,7 +1962,7 @@
         <v>-2.3203092957179441E-2</v>
       </c>
     </row>
-    <row r="19" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I19" s="25">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -2030,7 +2028,7 @@
         <v>-0.20270748517276843</v>
       </c>
     </row>
-    <row r="20" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I20" s="25">
         <f t="shared" si="16"/>
         <v>41974</v>
@@ -2096,7 +2094,7 @@
         <v>-4.7207585173300551E-2</v>
       </c>
     </row>
-    <row r="21" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I21" s="25">
         <f t="shared" si="16"/>
         <v>42339</v>
@@ -2162,7 +2160,7 @@
         <v>0.20661969877883085</v>
       </c>
     </row>
-    <row r="22" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I22" s="25">
         <f t="shared" si="16"/>
         <v>42705</v>
@@ -2228,7 +2226,7 @@
         <v>-0.201684212764983</v>
       </c>
     </row>
-    <row r="23" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I23" s="25">
         <f t="shared" si="16"/>
         <v>43070</v>
@@ -2294,7 +2292,7 @@
         <v>-9.0969766470366656E-2</v>
       </c>
     </row>
-    <row r="24" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="9:24" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="I24" s="26">
         <f t="shared" si="16"/>
         <v>43435</v>
@@ -2360,19 +2358,19 @@
         <v>0.13049898806109811</v>
       </c>
     </row>
-    <row r="26" spans="9:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J26" s="43">
+      <c r="J26" s="43" t="e">
         <f>MAX(T36:T1048576)</f>
-        <v>0.81850965667984033</v>
-      </c>
-    </row>
-    <row r="27" spans="9:24" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I27" s="27"/>
     </row>
-    <row r="28" spans="9:24" x14ac:dyDescent="0.45">
+    <row r="28" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I28" s="27"/>
       <c r="J28" s="27" t="s">
         <v>13</v>
@@ -2381,7 +2379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="9:24" x14ac:dyDescent="0.45">
+    <row r="29" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I29" s="28" t="s">
         <v>28</v>
       </c>
@@ -2392,33 +2390,33 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="30" spans="9:24" x14ac:dyDescent="0.45">
+    <row r="30" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="36" t="e">
         <f>INDEX($P$37:$T$1048576,MATCH(LARGE($T$37:$T$1048576,1),$T$37:$T$1048576,0),1)</f>
-        <v>0.33247153729429951</v>
-      </c>
-      <c r="K30" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" s="36" t="e">
         <f>INDEX($P$37:$T$1048576,MATCH(LARGE($T$37:$T$1048576,1),$T$37:$T$1048576,0),2)</f>
-        <v>0.29213116384657584</v>
-      </c>
-    </row>
-    <row r="31" spans="9:24" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="9:24" x14ac:dyDescent="0.25">
       <c r="I31" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="36" t="e">
         <f>MAX(P37:P1048576)</f>
-        <v>1.777565853119073</v>
-      </c>
-      <c r="K31" s="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" s="36" t="e">
         <f>K29+J26*J31</f>
-        <v>1.4749548161622998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.45">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I33" s="7" t="s">
         <v>15</v>
       </c>
@@ -2442,7 +2440,7 @@
       <c r="Z33" s="8"/>
       <c r="AA33" s="37"/>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I34" s="28" t="s">
         <v>10</v>
       </c>
@@ -2488,7 +2486,7 @@
         <v>STF</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="V35" s="13" t="str">
         <f t="array" ref="V35:V39">TRANSPOSE(W34:AA34)</f>
         <v>OIL</v>
@@ -2510,7 +2508,7 @@
         <v>-4.1247389738146449E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="J36" s="29" t="str">
         <f>J11</f>
         <v>OIL</v>
@@ -2568,7 +2566,7 @@
         <v>3.1823047638038712E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I37" s="28" t="s">
         <v>11</v>
       </c>
@@ -2591,9 +2589,9 @@
         <f t="shared" ref="O37:O47" si="18">SUM(J37:N37)</f>
         <v>1</v>
       </c>
-      <c r="P37" s="36">
-        <f t="array" ref="P37">SQRT(MMULT(MMULT(J37:N37,$W$35:$AA$39),TRANSPOSE(J37:N37)))</f>
-        <v>0.43076338884044785</v>
+      <c r="P37" s="36" t="e">
+        <f>SQRT(MMULT(MMULT(J37:N37,$W$35:$AA$39),TRANSPOSE(J37:N37)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q37" s="36">
         <f t="array" ref="Q37">MMULT(J37:N37,TRANSPOSE($J$34:$N$34))</f>
@@ -2603,9 +2601,9 @@
         <f t="shared" ref="R37:R47" si="19">TEXT(J37*100,"0")&amp;"/"&amp;TEXT(K37*100,"0")&amp;"/"&amp;TEXT(L37*100,"0")&amp;"/"&amp;TEXT(M37*100,"0")&amp;"/"&amp;TEXT(N37*100,"0")</f>
         <v>0/0/100/0/0</v>
       </c>
-      <c r="T37" s="42">
-        <f t="shared" ref="T37:T47" si="20">(Q37-$K$29)/P37</f>
-        <v>-3.3479790548655527E-3</v>
+      <c r="T37" s="42" t="e">
+        <f>(Q37-$K$29)/P37</f>
+        <v>#VALUE!</v>
       </c>
       <c r="V37" s="13" t="str">
         <v>GOLD</v>
@@ -2626,7 +2624,7 @@
         <v>2.1444572118210704E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I38" s="28" t="s">
         <v>11</v>
       </c>
@@ -2665,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="T38" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q38-$K$29)/P38</f>
         <v>0.3223376205682883</v>
       </c>
       <c r="V38" s="13" t="str">
@@ -2687,7 +2685,7 @@
         <v>2.6113196482852156E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I39" s="28" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +2721,7 @@
         <v>0/0/0/0/100</v>
       </c>
       <c r="T39" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q39-$K$29)/P39</f>
         <v>0.33392111087166892</v>
       </c>
       <c r="V39" s="22" t="str">
@@ -2745,7 +2743,7 @@
         <v>2.4182295719929889E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
       <c r="D40" s="42"/>
@@ -2788,11 +2786,11 @@
         <v>16</v>
       </c>
       <c r="T40" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q40-$K$29)/P40</f>
         <v>0.38806029030997202</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I41" s="28" t="s">
         <v>11</v>
       </c>
@@ -2831,11 +2829,11 @@
         <v>22</v>
       </c>
       <c r="T41" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q41-$K$29)/P41</f>
         <v>0.39673730883272995</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I42" s="28" t="s">
         <v>11</v>
       </c>
@@ -2874,11 +2872,11 @@
         <v>20</v>
       </c>
       <c r="T42" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q42-$K$29)/P42</f>
         <v>0.51732762265540388</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I43" s="28" t="s">
         <v>11</v>
       </c>
@@ -2917,11 +2915,11 @@
         <v>21</v>
       </c>
       <c r="T43" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q43-$K$29)/P43</f>
         <v>0.61484001684268963</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I44" s="28" t="s">
         <v>11</v>
       </c>
@@ -2957,11 +2955,11 @@
         <v>0/100/0/0/0</v>
       </c>
       <c r="T44" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q44-$K$29)/P44</f>
         <v>0.47488152113474202</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>0</v>
       </c>
@@ -3015,11 +3013,11 @@
         <v>6/0/0/48/45</v>
       </c>
       <c r="T45" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q45-$K$29)/P45</f>
         <v>0.81850965667984033</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>38718</v>
       </c>
@@ -3073,11 +3071,11 @@
         <v>100/0/0/0/0</v>
       </c>
       <c r="T46" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q46-$K$29)/P46</f>
         <v>0.2346675177606346</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>38749</v>
       </c>
@@ -3134,11 +3132,11 @@
         <v>17</v>
       </c>
       <c r="T47" s="42">
-        <f t="shared" si="20"/>
+        <f>(Q47-$K$29)/P47</f>
         <v>0.76371691721918045</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>38777</v>
       </c>
@@ -3158,7 +3156,7 @@
         <v>32.398994000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>38808</v>
       </c>
@@ -3178,7 +3176,7 @@
         <v>33.014476999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>38838</v>
       </c>
@@ -3198,7 +3196,7 @@
         <v>32.485165000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>38869</v>
       </c>
@@ -3218,7 +3216,7 @@
         <v>32.029708999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>38899</v>
       </c>
@@ -3238,7 +3236,7 @@
         <v>32.653961000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>38930</v>
       </c>
@@ -3258,7 +3256,7 @@
         <v>33.518177000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>38961</v>
       </c>
@@ -3278,7 +3276,7 @@
         <v>33.835273999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>38991</v>
       </c>
@@ -3298,7 +3296,7 @@
         <v>34.954407000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>39022</v>
       </c>
@@ -3318,7 +3316,7 @@
         <v>35.426929000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>39052</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>35.370967999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>39083</v>
       </c>
@@ -3358,7 +3356,7 @@
         <v>36.294620999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>39114</v>
       </c>
@@ -3378,7 +3376,7 @@
         <v>35.898879999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>39142</v>
       </c>
@@ -3398,7 +3396,7 @@
         <v>36.426524999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>39173</v>
       </c>
@@ -3418,7 +3416,7 @@
         <v>37.902678999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>39203</v>
       </c>
@@ -3438,7 +3436,7 @@
         <v>38.901443</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>39234</v>
       </c>
@@ -3458,7 +3456,7 @@
         <v>38.179070000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>39264</v>
       </c>
@@ -3478,7 +3476,7 @@
         <v>37.944664000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>39295</v>
       </c>
@@ -3498,7 +3496,7 @@
         <v>38.775471000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>39326</v>
       </c>
@@ -3518,7 +3516,7 @@
         <v>40.360984999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>39356</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>41.007880999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>39387</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>40.265861999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>39417</v>
       </c>
@@ -3578,7 +3576,7 @@
         <v>38.642277</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>39448</v>
       </c>
@@ -3598,7 +3596,7 @@
         <v>38.201084000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>39479</v>
       </c>
@@ -3618,7 +3616,7 @@
         <v>38.068461999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>39508</v>
       </c>
@@ -3638,7 +3636,7 @@
         <v>38.234240999999997</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>39539</v>
       </c>
@@ -3658,7 +3656,7 @@
         <v>39.460971999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>39569</v>
       </c>
@@ -3678,7 +3676,7 @@
         <v>39.765991</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>39600</v>
       </c>
@@ -3698,7 +3696,7 @@
         <v>36.357674000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>39630</v>
       </c>
@@ -3718,7 +3716,7 @@
         <v>36.288868000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>39661</v>
       </c>
@@ -3738,7 +3736,7 @@
         <v>36.610897000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>39692</v>
       </c>
@@ -3758,7 +3756,7 @@
         <v>34.329844999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>39722</v>
       </c>
@@ -3778,7 +3776,7 @@
         <v>29.378616000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>39753</v>
       </c>
@@ -3798,7 +3796,7 @@
         <v>28.35885</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>39783</v>
       </c>
@@ -3818,7 +3816,7 @@
         <v>28.318595999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>39814</v>
       </c>
@@ -3838,7 +3836,7 @@
         <v>26.115518999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>39845</v>
       </c>
@@ -3858,7 +3856,7 @@
         <v>23.622489999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>39873</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>25.373062000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>39904</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>26.898845999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>39934</v>
       </c>
@@ -3918,7 +3916,7 @@
         <v>28.472318999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>39965</v>
       </c>
@@ -3938,7 +3936,7 @@
         <v>28.199860000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>39995</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>30.662361000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>40026</v>
       </c>
@@ -3978,7 +3976,7 @@
         <v>31.028386999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>40057</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>32.216197999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>40087</v>
       </c>
@@ -4018,7 +4016,7 @@
         <v>32.188580000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>40118</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>33.997936000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>40148</v>
       </c>
@@ -4058,7 +4056,7 @@
         <v>33.949599999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>40179</v>
       </c>
@@ -4078,7 +4076,7 @@
         <v>32.939414999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>40210</v>
       </c>
@@ -4098,7 +4096,7 @@
         <v>33.491199000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>40238</v>
       </c>
@@ -4118,7 +4116,7 @@
         <v>35.230365999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>40269</v>
       </c>
@@ -4138,7 +4136,7 @@
         <v>35.879931999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>40299</v>
       </c>
@@ -4158,7 +4156,7 @@
         <v>32.860591999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>40330</v>
       </c>
@@ -4178,7 +4176,7 @@
         <v>30.994627000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>40360</v>
       </c>
@@ -4198,7 +4196,7 @@
         <v>33.482872</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>40391</v>
       </c>
@@ -4218,7 +4216,7 @@
         <v>32.244858000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>40422</v>
       </c>
@@ -4238,7 +4236,7 @@
         <v>34.812846999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>40452</v>
       </c>
@@ -4258,7 +4256,7 @@
         <v>35.916438999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>40483</v>
       </c>
@@ -4278,7 +4276,7 @@
         <v>35.668830999999997</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>40513</v>
       </c>
@@ -4298,7 +4296,7 @@
         <v>37.536472000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>40544</v>
       </c>
@@ -4318,7 +4316,7 @@
         <v>38.343505999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>40575</v>
       </c>
@@ -4338,7 +4336,7 @@
         <v>39.816882999999997</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>40603</v>
       </c>
@@ -4358,7 +4356,7 @@
         <v>39.788277000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>40634</v>
       </c>
@@ -4378,7 +4376,7 @@
         <v>41.311717999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>40664</v>
       </c>
@@ -4398,7 +4396,7 @@
         <v>40.417675000000003</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>40695</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>39.416350999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>40725</v>
       </c>
@@ -4438,7 +4436,7 @@
         <v>38.700980999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>40756</v>
       </c>
@@ -4458,7 +4456,7 @@
         <v>36.806080000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>40787</v>
       </c>
@@ -4478,7 +4476,7 @@
         <v>34.173447000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>40817</v>
       </c>
@@ -4498,7 +4496,7 @@
         <v>37.456989</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>40848</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>37.681198000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>40878</v>
       </c>
@@ -4538,7 +4536,7 @@
         <v>37.579945000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>40909</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>39.367218000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>40940</v>
       </c>
@@ -4578,7 +4576,7 @@
         <v>40.495334999999997</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>40969</v>
       </c>
@@ -4598,7 +4596,7 @@
         <v>41.161952999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>41000</v>
       </c>
@@ -4618,7 +4616,7 @@
         <v>40.788361000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>41030</v>
       </c>
@@ -4638,7 +4636,7 @@
         <v>38.715243999999998</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>41061</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>39.858021000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>41091</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>40.628051999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>41122</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>40.917461000000003</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>41153</v>
       </c>
@@ -4718,7 +4716,7 @@
         <v>42.075080999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>41183</v>
       </c>
@@ -4738,7 +4736,7 @@
         <v>41.288490000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>41214</v>
       </c>
@@ -4758,7 +4756,7 @@
         <v>41.340434999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>41244</v>
       </c>
@@ -4778,7 +4776,7 @@
         <v>41.154926000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>41275</v>
       </c>
@@ -4798,7 +4796,7 @@
         <v>44.020519</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>41306</v>
       </c>
@@ -4818,7 +4816,7 @@
         <v>44.674956999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>41334</v>
       </c>
@@ -4838,7 +4836,7 @@
         <v>46.044013999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>41365</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>46.472785999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>41395</v>
       </c>
@@ -4878,7 +4876,7 @@
         <v>47.014389000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>41426</v>
       </c>
@@ -4898,7 +4896,7 @@
         <v>45.901093000000003</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>41456</v>
       </c>
@@ -4918,7 +4916,7 @@
         <v>48.767052</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>41487</v>
       </c>
@@ -4938,7 +4936,7 @@
         <v>46.834319999999998</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>41518</v>
       </c>
@@ -4958,7 +4956,7 @@
         <v>47.876778000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>41548</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>50.174747000000004</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>41579</v>
       </c>
@@ -4998,7 +4996,7 @@
         <v>51.300891999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>41609</v>
       </c>
@@ -5018,7 +5016,7 @@
         <v>52.457484999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>41640</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>50.610526999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>41671</v>
       </c>
@@ -5058,7 +5056,7 @@
         <v>52.934792000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>41699</v>
       </c>
@@ -5078,7 +5076,7 @@
         <v>54.066139</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>41730</v>
       </c>
@@ -5098,7 +5096,7 @@
         <v>55.197495000000004</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>41760</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>55.56691</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>41791</v>
       </c>
@@ -5138,7 +5136,7 @@
         <v>55.944031000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>41821</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>55.618361999999998</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41852</v>
       </c>
@@ -5178,7 +5176,7 @@
         <v>57.532215000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41883</v>
       </c>
@@ -5198,7 +5196,7 @@
         <v>57.718929000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41913</v>
       </c>
@@ -5218,7 +5216,7 @@
         <v>58.325760000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>41944</v>
       </c>
@@ -5238,7 +5236,7 @@
         <v>59.656120000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>41974</v>
       </c>
@@ -5258,7 +5256,7 @@
         <v>58.706982000000004</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>42005</v>
       </c>
@@ -5278,7 +5276,7 @@
         <v>57.443615000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>42036</v>
       </c>
@@ -5298,7 +5296,7 @@
         <v>60.188763000000002</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>42064</v>
       </c>
@@ -5318,7 +5316,7 @@
         <v>58.961703999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>42095</v>
       </c>
@@ -5338,7 +5336,7 @@
         <v>59.811211</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>42125</v>
       </c>
@@ -5358,7 +5356,7 @@
         <v>60.393276</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>42156</v>
       </c>
@@ -5378,7 +5376,7 @@
         <v>58.285259000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>42186</v>
       </c>
@@ -5398,7 +5396,7 @@
         <v>59.584468999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>42217</v>
       </c>
@@ -5418,7 +5416,7 @@
         <v>56.47316</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>42248</v>
       </c>
@@ -5438,7 +5436,7 @@
         <v>54.857815000000002</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>42278</v>
       </c>
@@ -5458,7 +5456,7 @@
         <v>58.613678</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>42309</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>58.390869000000002</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>42339</v>
       </c>
@@ -5498,7 +5496,7 @@
         <v>50.799576000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>42370</v>
       </c>
@@ -5518,7 +5516,7 @@
         <v>55.481521999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>42401</v>
       </c>
@@ -5538,7 +5536,7 @@
         <v>55.795132000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>42430</v>
       </c>
@@ -5558,7 +5556,7 @@
         <v>59.334408000000003</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>42461</v>
       </c>
@@ -5578,7 +5576,7 @@
         <v>60.454430000000002</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>42491</v>
       </c>
@@ -5598,7 +5596,7 @@
         <v>61.162289000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>42522</v>
       </c>
@@ -5618,7 +5616,7 @@
         <v>61.628219999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>42552</v>
       </c>
@@ -5638,7 +5636,7 @@
         <v>64.326201999999995</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>42583</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>63.889842999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>42614</v>
       </c>
@@ -5678,7 +5676,7 @@
         <v>63.462563000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>42644</v>
       </c>
@@ -5698,7 +5696,7 @@
         <v>61.817146000000001</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>42675</v>
       </c>
@@ -5718,7 +5716,7 @@
         <v>64.008018000000007</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>42705</v>
       </c>
@@ -5738,7 +5736,7 @@
         <v>64.698905999999994</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>42736</v>
       </c>
@@ -5758,7 +5756,7 @@
         <v>66.417952999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>42767</v>
       </c>
@@ -5778,7 +5776,7 @@
         <v>68.356414999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>42795</v>
       </c>
@@ -5798,7 +5796,7 @@
         <v>68.597565000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>42826</v>
       </c>
@@ -5818,7 +5816,7 @@
         <v>69.079864999999998</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>42856</v>
       </c>
@@ -5838,7 +5836,7 @@
         <v>69.645638000000005</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>42887</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>68.931472999999997</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>42917</v>
       </c>
@@ -5878,7 +5876,7 @@
         <v>70.478851000000006</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>42948</v>
       </c>
@@ -5898,7 +5896,7 @@
         <v>70.450691000000006</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>42979</v>
       </c>
@@ -5918,7 +5916,7 @@
         <v>72.130989</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43009</v>
       </c>
@@ -5938,7 +5936,7 @@
         <v>73.341933999999995</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43040</v>
       </c>
@@ -5958,7 +5956,7 @@
         <v>75.482215999999994</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43070</v>
       </c>
@@ -5978,7 +5976,7 @@
         <v>75.238144000000005</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43101</v>
       </c>
@@ -5998,7 +5996,7 @@
         <v>79.491569999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43132</v>
       </c>
@@ -6018,7 +6016,7 @@
         <v>75.103119000000007</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43160</v>
       </c>
@@ -6038,7 +6036,7 @@
         <v>73.393828999999997</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43191</v>
       </c>
@@ -6058,7 +6056,7 @@
         <v>73.009720000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43221</v>
       </c>
@@ -6078,7 +6076,7 @@
         <v>74.344498000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43252</v>
       </c>
@@ -6098,7 +6096,7 @@
         <v>74.104423999999995</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43282</v>
       </c>
@@ -6118,7 +6116,7 @@
         <v>78.551270000000002</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43313</v>
       </c>
@@ -6138,7 +6136,7 @@
         <v>79.863861</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43344</v>
       </c>
@@ -6158,7 +6156,7 @@
         <v>81.011161999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43374</v>
       </c>
@@ -6178,7 +6176,7 @@
         <v>77.005324999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43405</v>
       </c>
@@ -6198,7 +6196,7 @@
         <v>78.813782000000003</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43435</v>
       </c>
@@ -6218,7 +6216,7 @@
         <v>70.831290999999993</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43466</v>
       </c>
@@ -6238,7 +6236,7 @@
         <v>76.529999000000004</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>43497</v>
       </c>
@@ -6258,7 +6256,7 @@
         <v>79.089995999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>43525</v>
       </c>
@@ -6278,7 +6276,7 @@
         <v>80.830001999999993</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>43556</v>
       </c>
@@ -6298,7 +6296,7 @@
         <v>83.82</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>43586</v>
       </c>

--- a/FinalProject/Analysis_Carpenter/Example Functions/Portfolio Opt. Real World Data.xlsx
+++ b/FinalProject/Analysis_Carpenter/Example Functions/Portfolio Opt. Real World Data.xlsx
@@ -8,47 +8,85 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbry1\OneDrive\Documents\DScourseS20\FinalProject\Analysis_Carpenter\Example Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADAD32FA-C02A-43BA-8159-48801D693DBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF32502-1E1B-48EF-BBCD-B95E9DB58B36}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22597" yWindow="-3773" windowWidth="22695" windowHeight="14596" xr2:uid="{6E0FF362-F7E2-4986-8190-DAF7F8611905}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6E0FF362-F7E2-4986-8190-DAF7F8611905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$J$37:$N$37</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$P$12:$R$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$O$37</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Sheet2!$S$12</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$Q$64</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Sheet2!$S$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$T$37</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$Q$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.07</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029" iterate="1" calcOnSave="0"/>
   <extLst>
@@ -66,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -190,6 +228,27 @@
   <si>
     <t>lag value</t>
   </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Adjusted Close Prices</t>
+  </si>
+  <si>
+    <t>Returns (Monthly)</t>
+  </si>
+  <si>
+    <t>T-Bill Rate</t>
+  </si>
+  <si>
+    <t>Avg Return</t>
+  </si>
 </sst>
 </file>
 
@@ -200,7 +259,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +313,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,8 +364,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -460,6 +538,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39991454817346722"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -467,7 +569,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -529,6 +631,23 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="5" borderId="12" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1093,6 +1212,2594 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="JPM"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Date</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Open</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>High</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Close</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Adj Close</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>42005</v>
+          </cell>
+          <cell r="B2">
+            <v>62.18</v>
+          </cell>
+          <cell r="C2">
+            <v>62.959999000000003</v>
+          </cell>
+          <cell r="D2">
+            <v>54.369999</v>
+          </cell>
+          <cell r="E2">
+            <v>54.380001</v>
+          </cell>
+          <cell r="F2">
+            <v>46.607315</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42036</v>
+          </cell>
+          <cell r="B3">
+            <v>54.529998999999997</v>
+          </cell>
+          <cell r="C3">
+            <v>61.919998</v>
+          </cell>
+          <cell r="D3">
+            <v>54.27</v>
+          </cell>
+          <cell r="E3">
+            <v>61.279998999999997</v>
+          </cell>
+          <cell r="F3">
+            <v>52.858939999999997</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42064</v>
+          </cell>
+          <cell r="B4">
+            <v>61.279998999999997</v>
+          </cell>
+          <cell r="C4">
+            <v>62.869999</v>
+          </cell>
+          <cell r="D4">
+            <v>58.869999</v>
+          </cell>
+          <cell r="E4">
+            <v>60.580002</v>
+          </cell>
+          <cell r="F4">
+            <v>52.255141999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42095</v>
+          </cell>
+          <cell r="B5">
+            <v>60.41</v>
+          </cell>
+          <cell r="C5">
+            <v>64.480002999999996</v>
+          </cell>
+          <cell r="D5">
+            <v>59.650002000000001</v>
+          </cell>
+          <cell r="E5">
+            <v>63.259998000000003</v>
+          </cell>
+          <cell r="F5">
+            <v>54.566848999999998</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42125</v>
+          </cell>
+          <cell r="B6">
+            <v>63.700001</v>
+          </cell>
+          <cell r="C6">
+            <v>67.190002000000007</v>
+          </cell>
+          <cell r="D6">
+            <v>63.25</v>
+          </cell>
+          <cell r="E6">
+            <v>65.779999000000004</v>
+          </cell>
+          <cell r="F6">
+            <v>57.117686999999997</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>42156</v>
+          </cell>
+          <cell r="B7">
+            <v>65.989998</v>
+          </cell>
+          <cell r="C7">
+            <v>69.819999999999993</v>
+          </cell>
+          <cell r="D7">
+            <v>65.580001999999993</v>
+          </cell>
+          <cell r="E7">
+            <v>67.760002</v>
+          </cell>
+          <cell r="F7">
+            <v>58.836956000000001</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>42186</v>
+          </cell>
+          <cell r="B8">
+            <v>68.120002999999997</v>
+          </cell>
+          <cell r="C8">
+            <v>70.610000999999997</v>
+          </cell>
+          <cell r="D8">
+            <v>65.209998999999996</v>
+          </cell>
+          <cell r="E8">
+            <v>68.529999000000004</v>
+          </cell>
+          <cell r="F8">
+            <v>59.505549999999999</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42217</v>
+          </cell>
+          <cell r="B9">
+            <v>68.589995999999999</v>
+          </cell>
+          <cell r="C9">
+            <v>69.419998000000007</v>
+          </cell>
+          <cell r="D9">
+            <v>50.07</v>
+          </cell>
+          <cell r="E9">
+            <v>64.099997999999999</v>
+          </cell>
+          <cell r="F9">
+            <v>56.022708999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>42248</v>
+          </cell>
+          <cell r="B10">
+            <v>62.849997999999999</v>
+          </cell>
+          <cell r="C10">
+            <v>64.639999000000003</v>
+          </cell>
+          <cell r="D10">
+            <v>58.73</v>
+          </cell>
+          <cell r="E10">
+            <v>60.970001000000003</v>
+          </cell>
+          <cell r="F10">
+            <v>53.287120999999999</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>42278</v>
+          </cell>
+          <cell r="B11">
+            <v>61.119999</v>
+          </cell>
+          <cell r="C11">
+            <v>65.830001999999993</v>
+          </cell>
+          <cell r="D11">
+            <v>58.529998999999997</v>
+          </cell>
+          <cell r="E11">
+            <v>64.25</v>
+          </cell>
+          <cell r="F11">
+            <v>56.153804999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>42309</v>
+          </cell>
+          <cell r="B12">
+            <v>64.449996999999996</v>
+          </cell>
+          <cell r="C12">
+            <v>69.029999000000004</v>
+          </cell>
+          <cell r="D12">
+            <v>64.389999000000003</v>
+          </cell>
+          <cell r="E12">
+            <v>66.680000000000007</v>
+          </cell>
+          <cell r="F12">
+            <v>58.698101000000001</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>42339</v>
+          </cell>
+          <cell r="B13">
+            <v>67.339995999999999</v>
+          </cell>
+          <cell r="C13">
+            <v>68</v>
+          </cell>
+          <cell r="D13">
+            <v>63.509998000000003</v>
+          </cell>
+          <cell r="E13">
+            <v>66.029999000000004</v>
+          </cell>
+          <cell r="F13">
+            <v>58.125900000000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42370</v>
+          </cell>
+          <cell r="B14">
+            <v>63.950001</v>
+          </cell>
+          <cell r="C14">
+            <v>64.129997000000003</v>
+          </cell>
+          <cell r="D14">
+            <v>54.66</v>
+          </cell>
+          <cell r="E14">
+            <v>59.5</v>
+          </cell>
+          <cell r="F14">
+            <v>52.377575</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>42401</v>
+          </cell>
+          <cell r="B15">
+            <v>59.16</v>
+          </cell>
+          <cell r="C15">
+            <v>59.650002000000001</v>
+          </cell>
+          <cell r="D15">
+            <v>52.5</v>
+          </cell>
+          <cell r="E15">
+            <v>56.299999</v>
+          </cell>
+          <cell r="F15">
+            <v>49.893093</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>42430</v>
+          </cell>
+          <cell r="B16">
+            <v>56.759998000000003</v>
+          </cell>
+          <cell r="C16">
+            <v>60.970001000000003</v>
+          </cell>
+          <cell r="D16">
+            <v>56.669998</v>
+          </cell>
+          <cell r="E16">
+            <v>59.220001000000003</v>
+          </cell>
+          <cell r="F16">
+            <v>52.480803999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42461</v>
+          </cell>
+          <cell r="B17">
+            <v>59.02</v>
+          </cell>
+          <cell r="C17">
+            <v>64.660004000000001</v>
+          </cell>
+          <cell r="D17">
+            <v>57.07</v>
+          </cell>
+          <cell r="E17">
+            <v>63.200001</v>
+          </cell>
+          <cell r="F17">
+            <v>56.007893000000003</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>42491</v>
+          </cell>
+          <cell r="B18">
+            <v>63.689999</v>
+          </cell>
+          <cell r="C18">
+            <v>66.199996999999996</v>
+          </cell>
+          <cell r="D18">
+            <v>60.59</v>
+          </cell>
+          <cell r="E18">
+            <v>65.269997000000004</v>
+          </cell>
+          <cell r="F18">
+            <v>58.270561000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>42522</v>
+          </cell>
+          <cell r="B19">
+            <v>64.760002</v>
+          </cell>
+          <cell r="C19">
+            <v>65.919998000000007</v>
+          </cell>
+          <cell r="D19">
+            <v>57.049999</v>
+          </cell>
+          <cell r="E19">
+            <v>62.139999000000003</v>
+          </cell>
+          <cell r="F19">
+            <v>55.476215000000003</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>42552</v>
+          </cell>
+          <cell r="B20">
+            <v>61.66</v>
+          </cell>
+          <cell r="C20">
+            <v>64.980002999999996</v>
+          </cell>
+          <cell r="D20">
+            <v>58.759998000000003</v>
+          </cell>
+          <cell r="E20">
+            <v>63.970001000000003</v>
+          </cell>
+          <cell r="F20">
+            <v>57.109982000000002</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>42583</v>
+          </cell>
+          <cell r="B21">
+            <v>64.150002000000001</v>
+          </cell>
+          <cell r="C21">
+            <v>67.769997000000004</v>
+          </cell>
+          <cell r="D21">
+            <v>63.380001</v>
+          </cell>
+          <cell r="E21">
+            <v>67.5</v>
+          </cell>
+          <cell r="F21">
+            <v>60.730536999999998</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>42614</v>
+          </cell>
+          <cell r="B22">
+            <v>67.639999000000003</v>
+          </cell>
+          <cell r="C22">
+            <v>67.900002000000001</v>
+          </cell>
+          <cell r="D22">
+            <v>65.110000999999997</v>
+          </cell>
+          <cell r="E22">
+            <v>66.589995999999999</v>
+          </cell>
+          <cell r="F22">
+            <v>59.911797</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>42644</v>
+          </cell>
+          <cell r="B23">
+            <v>66.349997999999999</v>
+          </cell>
+          <cell r="C23">
+            <v>69.769997000000004</v>
+          </cell>
+          <cell r="D23">
+            <v>66.099997999999999</v>
+          </cell>
+          <cell r="E23">
+            <v>69.260002</v>
+          </cell>
+          <cell r="F23">
+            <v>62.314025999999998</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>42675</v>
+          </cell>
+          <cell r="B24">
+            <v>69.480002999999996</v>
+          </cell>
+          <cell r="C24">
+            <v>80.529999000000004</v>
+          </cell>
+          <cell r="D24">
+            <v>67.639999000000003</v>
+          </cell>
+          <cell r="E24">
+            <v>80.169998000000007</v>
+          </cell>
+          <cell r="F24">
+            <v>72.654205000000005</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>42705</v>
+          </cell>
+          <cell r="B25">
+            <v>80.650002000000001</v>
+          </cell>
+          <cell r="C25">
+            <v>87.389999000000003</v>
+          </cell>
+          <cell r="D25">
+            <v>80.650002000000001</v>
+          </cell>
+          <cell r="E25">
+            <v>85.489998</v>
+          </cell>
+          <cell r="F25">
+            <v>77.475470999999999</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>42736</v>
+          </cell>
+          <cell r="B26">
+            <v>87.339995999999999</v>
+          </cell>
+          <cell r="C26">
+            <v>88.169998000000007</v>
+          </cell>
+          <cell r="D26">
+            <v>83.029999000000004</v>
+          </cell>
+          <cell r="E26">
+            <v>84.629997000000003</v>
+          </cell>
+          <cell r="F26">
+            <v>76.696121000000005</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>42767</v>
+          </cell>
+          <cell r="B27">
+            <v>85.540001000000004</v>
+          </cell>
+          <cell r="C27">
+            <v>91.339995999999999</v>
+          </cell>
+          <cell r="D27">
+            <v>84.160004000000001</v>
+          </cell>
+          <cell r="E27">
+            <v>90.620002999999997</v>
+          </cell>
+          <cell r="F27">
+            <v>82.578963999999999</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>42795</v>
+          </cell>
+          <cell r="B28">
+            <v>92.790001000000004</v>
+          </cell>
+          <cell r="C28">
+            <v>93.980002999999996</v>
+          </cell>
+          <cell r="D28">
+            <v>85.230002999999996</v>
+          </cell>
+          <cell r="E28">
+            <v>87.839995999999999</v>
+          </cell>
+          <cell r="F28">
+            <v>80.045653999999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>42826</v>
+          </cell>
+          <cell r="B29">
+            <v>87.989998</v>
+          </cell>
+          <cell r="C29">
+            <v>89.129997000000003</v>
+          </cell>
+          <cell r="D29">
+            <v>84.360000999999997</v>
+          </cell>
+          <cell r="E29">
+            <v>87</v>
+          </cell>
+          <cell r="F29">
+            <v>79.280190000000005</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>42856</v>
+          </cell>
+          <cell r="B30">
+            <v>87.360000999999997</v>
+          </cell>
+          <cell r="C30">
+            <v>88.089995999999999</v>
+          </cell>
+          <cell r="D30">
+            <v>81.639999000000003</v>
+          </cell>
+          <cell r="E30">
+            <v>82.150002000000001</v>
+          </cell>
+          <cell r="F30">
+            <v>75.724318999999994</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>42887</v>
+          </cell>
+          <cell r="B31">
+            <v>82.459998999999996</v>
+          </cell>
+          <cell r="C31">
+            <v>92.650002000000001</v>
+          </cell>
+          <cell r="D31">
+            <v>81.650002000000001</v>
+          </cell>
+          <cell r="E31">
+            <v>91.400002000000001</v>
+          </cell>
+          <cell r="F31">
+            <v>84.250800999999996</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>42917</v>
+          </cell>
+          <cell r="B32">
+            <v>91.559997999999993</v>
+          </cell>
+          <cell r="C32">
+            <v>94.510002</v>
+          </cell>
+          <cell r="D32">
+            <v>90.32</v>
+          </cell>
+          <cell r="E32">
+            <v>91.800003000000004</v>
+          </cell>
+          <cell r="F32">
+            <v>84.619513999999995</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>42948</v>
+          </cell>
+          <cell r="B33">
+            <v>92.489998</v>
+          </cell>
+          <cell r="C33">
+            <v>95.220000999999996</v>
+          </cell>
+          <cell r="D33">
+            <v>90.160004000000001</v>
+          </cell>
+          <cell r="E33">
+            <v>90.889999000000003</v>
+          </cell>
+          <cell r="F33">
+            <v>84.241516000000004</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>42979</v>
+          </cell>
+          <cell r="B34">
+            <v>91.25</v>
+          </cell>
+          <cell r="C34">
+            <v>95.879997000000003</v>
+          </cell>
+          <cell r="D34">
+            <v>88.080001999999993</v>
+          </cell>
+          <cell r="E34">
+            <v>95.510002</v>
+          </cell>
+          <cell r="F34">
+            <v>88.523582000000005</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43009</v>
+          </cell>
+          <cell r="B35">
+            <v>95.769997000000004</v>
+          </cell>
+          <cell r="C35">
+            <v>102.41999800000001</v>
+          </cell>
+          <cell r="D35">
+            <v>94.959998999999996</v>
+          </cell>
+          <cell r="E35">
+            <v>100.610001</v>
+          </cell>
+          <cell r="F35">
+            <v>93.250525999999994</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43040</v>
+          </cell>
+          <cell r="B36">
+            <v>101.099998</v>
+          </cell>
+          <cell r="C36">
+            <v>106.660004</v>
+          </cell>
+          <cell r="D36">
+            <v>95.949996999999996</v>
+          </cell>
+          <cell r="E36">
+            <v>104.519997</v>
+          </cell>
+          <cell r="F36">
+            <v>97.440787999999998</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43070</v>
+          </cell>
+          <cell r="B37">
+            <v>104.900002</v>
+          </cell>
+          <cell r="C37">
+            <v>108.459999</v>
+          </cell>
+          <cell r="D37">
+            <v>102.199997</v>
+          </cell>
+          <cell r="E37">
+            <v>106.94000200000001</v>
+          </cell>
+          <cell r="F37">
+            <v>99.696892000000005</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43101</v>
+          </cell>
+          <cell r="B38">
+            <v>107.629997</v>
+          </cell>
+          <cell r="C38">
+            <v>117.349998</v>
+          </cell>
+          <cell r="D38">
+            <v>106.80999799999999</v>
+          </cell>
+          <cell r="E38">
+            <v>115.66999800000001</v>
+          </cell>
+          <cell r="F38">
+            <v>107.83560900000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43132</v>
+          </cell>
+          <cell r="B39">
+            <v>115.769997</v>
+          </cell>
+          <cell r="C39">
+            <v>119.33000199999999</v>
+          </cell>
+          <cell r="D39">
+            <v>103.980003</v>
+          </cell>
+          <cell r="E39">
+            <v>115.5</v>
+          </cell>
+          <cell r="F39">
+            <v>108.23803700000001</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43160</v>
+          </cell>
+          <cell r="B40">
+            <v>115.480003</v>
+          </cell>
+          <cell r="C40">
+            <v>118.75</v>
+          </cell>
+          <cell r="D40">
+            <v>106.650002</v>
+          </cell>
+          <cell r="E40">
+            <v>109.970001</v>
+          </cell>
+          <cell r="F40">
+            <v>103.05574</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43191</v>
+          </cell>
+          <cell r="B41">
+            <v>109.959999</v>
+          </cell>
+          <cell r="C41">
+            <v>115.150002</v>
+          </cell>
+          <cell r="D41">
+            <v>106.08000199999999</v>
+          </cell>
+          <cell r="E41">
+            <v>108.779999</v>
+          </cell>
+          <cell r="F41">
+            <v>101.940552</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43221</v>
+          </cell>
+          <cell r="B42">
+            <v>108.449997</v>
+          </cell>
+          <cell r="C42">
+            <v>114.730003</v>
+          </cell>
+          <cell r="D42">
+            <v>104.959999</v>
+          </cell>
+          <cell r="E42">
+            <v>107.010002</v>
+          </cell>
+          <cell r="F42">
+            <v>100.790375</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43252</v>
+          </cell>
+          <cell r="B43">
+            <v>108.339996</v>
+          </cell>
+          <cell r="C43">
+            <v>111.910004</v>
+          </cell>
+          <cell r="D43">
+            <v>103.110001</v>
+          </cell>
+          <cell r="E43">
+            <v>104.199997</v>
+          </cell>
+          <cell r="F43">
+            <v>98.143683999999993</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43282</v>
+          </cell>
+          <cell r="B44">
+            <v>103.720001</v>
+          </cell>
+          <cell r="C44">
+            <v>117.610001</v>
+          </cell>
+          <cell r="D44">
+            <v>102.199997</v>
+          </cell>
+          <cell r="E44">
+            <v>114.949997</v>
+          </cell>
+          <cell r="F44">
+            <v>108.26887499999999</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43313</v>
+          </cell>
+          <cell r="B45">
+            <v>115.75</v>
+          </cell>
+          <cell r="C45">
+            <v>118.290001</v>
+          </cell>
+          <cell r="D45">
+            <v>112.970001</v>
+          </cell>
+          <cell r="E45">
+            <v>114.58000199999999</v>
+          </cell>
+          <cell r="F45">
+            <v>108.50685900000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43344</v>
+          </cell>
+          <cell r="B46">
+            <v>114.339996</v>
+          </cell>
+          <cell r="C46">
+            <v>119.239998</v>
+          </cell>
+          <cell r="D46">
+            <v>112.519997</v>
+          </cell>
+          <cell r="E46">
+            <v>112.839996</v>
+          </cell>
+          <cell r="F46">
+            <v>106.859077</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43374</v>
+          </cell>
+          <cell r="B47">
+            <v>113.370003</v>
+          </cell>
+          <cell r="C47">
+            <v>116.80999799999999</v>
+          </cell>
+          <cell r="D47">
+            <v>102.730003</v>
+          </cell>
+          <cell r="E47">
+            <v>109.019997</v>
+          </cell>
+          <cell r="F47">
+            <v>103.24155399999999</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43405</v>
+          </cell>
+          <cell r="B48">
+            <v>109.620003</v>
+          </cell>
+          <cell r="C48">
+            <v>112.93</v>
+          </cell>
+          <cell r="D48">
+            <v>105.980003</v>
+          </cell>
+          <cell r="E48">
+            <v>111.19000200000001</v>
+          </cell>
+          <cell r="F48">
+            <v>106.033913</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43435</v>
+          </cell>
+          <cell r="B49">
+            <v>112.379997</v>
+          </cell>
+          <cell r="C49">
+            <v>112.889999</v>
+          </cell>
+          <cell r="D49">
+            <v>91.110000999999997</v>
+          </cell>
+          <cell r="E49">
+            <v>97.620002999999997</v>
+          </cell>
+          <cell r="F49">
+            <v>93.093177999999995</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43466</v>
+          </cell>
+          <cell r="B50">
+            <v>95.949996999999996</v>
+          </cell>
+          <cell r="C50">
+            <v>105.239998</v>
+          </cell>
+          <cell r="D50">
+            <v>95.940002000000007</v>
+          </cell>
+          <cell r="E50">
+            <v>103.5</v>
+          </cell>
+          <cell r="F50">
+            <v>98.700507999999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43497</v>
+          </cell>
+          <cell r="B51">
+            <v>104</v>
+          </cell>
+          <cell r="C51">
+            <v>107.269997</v>
+          </cell>
+          <cell r="D51">
+            <v>100.05999799999999</v>
+          </cell>
+          <cell r="E51">
+            <v>104.360001</v>
+          </cell>
+          <cell r="F51">
+            <v>100.328835</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43525</v>
+          </cell>
+          <cell r="B52">
+            <v>105.099998</v>
+          </cell>
+          <cell r="C52">
+            <v>108.400002</v>
+          </cell>
+          <cell r="D52">
+            <v>98.089995999999999</v>
+          </cell>
+          <cell r="E52">
+            <v>101.230003</v>
+          </cell>
+          <cell r="F52">
+            <v>97.319739999999996</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43556</v>
+          </cell>
+          <cell r="B53">
+            <v>102.150002</v>
+          </cell>
+          <cell r="C53">
+            <v>117.160004</v>
+          </cell>
+          <cell r="D53">
+            <v>102.120003</v>
+          </cell>
+          <cell r="E53">
+            <v>116.050003</v>
+          </cell>
+          <cell r="F53">
+            <v>111.56727600000001</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43586</v>
+          </cell>
+          <cell r="B54">
+            <v>115.720001</v>
+          </cell>
+          <cell r="C54">
+            <v>117</v>
+          </cell>
+          <cell r="D54">
+            <v>104.839996</v>
+          </cell>
+          <cell r="E54">
+            <v>105.959999</v>
+          </cell>
+          <cell r="F54">
+            <v>102.646507</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43617</v>
+          </cell>
+          <cell r="B55">
+            <v>105.800003</v>
+          </cell>
+          <cell r="C55">
+            <v>112.43</v>
+          </cell>
+          <cell r="D55">
+            <v>105.300003</v>
+          </cell>
+          <cell r="E55">
+            <v>111.800003</v>
+          </cell>
+          <cell r="F55">
+            <v>108.30387899999999</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43647</v>
+          </cell>
+          <cell r="B56">
+            <v>113.230003</v>
+          </cell>
+          <cell r="C56">
+            <v>117.239998</v>
+          </cell>
+          <cell r="D56">
+            <v>112.150002</v>
+          </cell>
+          <cell r="E56">
+            <v>116</v>
+          </cell>
+          <cell r="F56">
+            <v>112.372536</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43678</v>
+          </cell>
+          <cell r="B57">
+            <v>115.33000199999999</v>
+          </cell>
+          <cell r="C57">
+            <v>116.800003</v>
+          </cell>
+          <cell r="D57">
+            <v>104.339996</v>
+          </cell>
+          <cell r="E57">
+            <v>109.860001</v>
+          </cell>
+          <cell r="F57">
+            <v>107.17800099999999</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>43709</v>
+          </cell>
+          <cell r="B58">
+            <v>108.980003</v>
+          </cell>
+          <cell r="C58">
+            <v>120.400002</v>
+          </cell>
+          <cell r="D58">
+            <v>107.32</v>
+          </cell>
+          <cell r="E58">
+            <v>117.69000200000001</v>
+          </cell>
+          <cell r="F58">
+            <v>114.816841</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>43739</v>
+          </cell>
+          <cell r="B59">
+            <v>118.400002</v>
+          </cell>
+          <cell r="C59">
+            <v>127.41999800000001</v>
+          </cell>
+          <cell r="D59">
+            <v>110.519997</v>
+          </cell>
+          <cell r="E59">
+            <v>124.91999800000001</v>
+          </cell>
+          <cell r="F59">
+            <v>121.87033099999999</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>43770</v>
+          </cell>
+          <cell r="B60">
+            <v>126.199997</v>
+          </cell>
+          <cell r="C60">
+            <v>132.429993</v>
+          </cell>
+          <cell r="D60">
+            <v>126.019997</v>
+          </cell>
+          <cell r="E60">
+            <v>131.759995</v>
+          </cell>
+          <cell r="F60">
+            <v>129.573059</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>43800</v>
+          </cell>
+          <cell r="B61">
+            <v>132.30999800000001</v>
+          </cell>
+          <cell r="C61">
+            <v>140.08000200000001</v>
+          </cell>
+          <cell r="D61">
+            <v>128.58999600000001</v>
+          </cell>
+          <cell r="E61">
+            <v>139.39999399999999</v>
+          </cell>
+          <cell r="F61">
+            <v>137.08625799999999</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>43831</v>
+          </cell>
+          <cell r="B62">
+            <v>139.78999300000001</v>
+          </cell>
+          <cell r="C62">
+            <v>141.10000600000001</v>
+          </cell>
+          <cell r="D62">
+            <v>129.71000699999999</v>
+          </cell>
+          <cell r="E62">
+            <v>132.36000100000001</v>
+          </cell>
+          <cell r="F62">
+            <v>130.16310100000001</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>43862</v>
+          </cell>
+          <cell r="B63">
+            <v>132.66000399999999</v>
+          </cell>
+          <cell r="C63">
+            <v>139.28999300000001</v>
+          </cell>
+          <cell r="D63">
+            <v>112.660004</v>
+          </cell>
+          <cell r="E63">
+            <v>116.110001</v>
+          </cell>
+          <cell r="F63">
+            <v>114.915863</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>43891</v>
+          </cell>
+          <cell r="B64">
+            <v>116.629997</v>
+          </cell>
+          <cell r="C64">
+            <v>122.949997</v>
+          </cell>
+          <cell r="D64">
+            <v>76.910004000000001</v>
+          </cell>
+          <cell r="E64">
+            <v>90.029999000000004</v>
+          </cell>
+          <cell r="F64">
+            <v>89.104079999999996</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="JNJ (1)"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Date</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Open</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>High</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Low</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Close</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Adj Close</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>42005</v>
+          </cell>
+          <cell r="B2">
+            <v>105.050003</v>
+          </cell>
+          <cell r="C2">
+            <v>106.5</v>
+          </cell>
+          <cell r="D2">
+            <v>100.089996</v>
+          </cell>
+          <cell r="E2">
+            <v>100.139999</v>
+          </cell>
+          <cell r="F2">
+            <v>86.740662</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>42036</v>
+          </cell>
+          <cell r="B3">
+            <v>100.489998</v>
+          </cell>
+          <cell r="C3">
+            <v>103.33000199999999</v>
+          </cell>
+          <cell r="D3">
+            <v>97.150002000000001</v>
+          </cell>
+          <cell r="E3">
+            <v>102.510002</v>
+          </cell>
+          <cell r="F3">
+            <v>88.793541000000005</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>42064</v>
+          </cell>
+          <cell r="B4">
+            <v>102.510002</v>
+          </cell>
+          <cell r="C4">
+            <v>103.410004</v>
+          </cell>
+          <cell r="D4">
+            <v>98.220000999999996</v>
+          </cell>
+          <cell r="E4">
+            <v>100.599998</v>
+          </cell>
+          <cell r="F4">
+            <v>87.749092000000005</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>42095</v>
+          </cell>
+          <cell r="B5">
+            <v>100.459999</v>
+          </cell>
+          <cell r="C5">
+            <v>102.139999</v>
+          </cell>
+          <cell r="D5">
+            <v>98.040001000000004</v>
+          </cell>
+          <cell r="E5">
+            <v>99.199996999999996</v>
+          </cell>
+          <cell r="F5">
+            <v>86.527923999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>42125</v>
+          </cell>
+          <cell r="B6">
+            <v>99.620002999999997</v>
+          </cell>
+          <cell r="C6">
+            <v>104.480003</v>
+          </cell>
+          <cell r="D6">
+            <v>98.660004000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>100.139999</v>
+          </cell>
+          <cell r="F6">
+            <v>87.347847000000002</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>42156</v>
+          </cell>
+          <cell r="B7">
+            <v>100.279999</v>
+          </cell>
+          <cell r="C7">
+            <v>100.839996</v>
+          </cell>
+          <cell r="D7">
+            <v>97.010002</v>
+          </cell>
+          <cell r="E7">
+            <v>97.459998999999996</v>
+          </cell>
+          <cell r="F7">
+            <v>85.630118999999993</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>42186</v>
+          </cell>
+          <cell r="B8">
+            <v>98.300003000000004</v>
+          </cell>
+          <cell r="C8">
+            <v>101.360001</v>
+          </cell>
+          <cell r="D8">
+            <v>96.639999000000003</v>
+          </cell>
+          <cell r="E8">
+            <v>100.209999</v>
+          </cell>
+          <cell r="F8">
+            <v>88.046310000000005</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>42217</v>
+          </cell>
+          <cell r="B9">
+            <v>100</v>
+          </cell>
+          <cell r="C9">
+            <v>101</v>
+          </cell>
+          <cell r="D9">
+            <v>81.790001000000004</v>
+          </cell>
+          <cell r="E9">
+            <v>93.980002999999996</v>
+          </cell>
+          <cell r="F9">
+            <v>82.572524999999999</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>42248</v>
+          </cell>
+          <cell r="B10">
+            <v>92.290001000000004</v>
+          </cell>
+          <cell r="C10">
+            <v>96.190002000000007</v>
+          </cell>
+          <cell r="D10">
+            <v>89.900002000000001</v>
+          </cell>
+          <cell r="E10">
+            <v>93.349997999999999</v>
+          </cell>
+          <cell r="F10">
+            <v>82.646431000000007</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>42278</v>
+          </cell>
+          <cell r="B11">
+            <v>93.43</v>
+          </cell>
+          <cell r="C11">
+            <v>102.120003</v>
+          </cell>
+          <cell r="D11">
+            <v>91.760002</v>
+          </cell>
+          <cell r="E11">
+            <v>101.029999</v>
+          </cell>
+          <cell r="F11">
+            <v>89.445830999999998</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>42309</v>
+          </cell>
+          <cell r="B12">
+            <v>101.18</v>
+          </cell>
+          <cell r="C12">
+            <v>103</v>
+          </cell>
+          <cell r="D12">
+            <v>99.739998</v>
+          </cell>
+          <cell r="E12">
+            <v>101.239998</v>
+          </cell>
+          <cell r="F12">
+            <v>89.63176</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>42339</v>
+          </cell>
+          <cell r="B13">
+            <v>101.730003</v>
+          </cell>
+          <cell r="C13">
+            <v>105.489998</v>
+          </cell>
+          <cell r="D13">
+            <v>100.30999799999999</v>
+          </cell>
+          <cell r="E13">
+            <v>102.720001</v>
+          </cell>
+          <cell r="F13">
+            <v>91.612457000000006</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>42370</v>
+          </cell>
+          <cell r="B14">
+            <v>101.709999</v>
+          </cell>
+          <cell r="C14">
+            <v>104.75</v>
+          </cell>
+          <cell r="D14">
+            <v>94.279999000000004</v>
+          </cell>
+          <cell r="E14">
+            <v>104.44000200000001</v>
+          </cell>
+          <cell r="F14">
+            <v>93.146477000000004</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>42401</v>
+          </cell>
+          <cell r="B15">
+            <v>103.610001</v>
+          </cell>
+          <cell r="C15">
+            <v>106.91999800000001</v>
+          </cell>
+          <cell r="D15">
+            <v>99.779999000000004</v>
+          </cell>
+          <cell r="E15">
+            <v>105.209999</v>
+          </cell>
+          <cell r="F15">
+            <v>93.833183000000005</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>42430</v>
+          </cell>
+          <cell r="B16">
+            <v>105.900002</v>
+          </cell>
+          <cell r="C16">
+            <v>109.55999799999999</v>
+          </cell>
+          <cell r="D16">
+            <v>105.44000200000001</v>
+          </cell>
+          <cell r="E16">
+            <v>108.199997</v>
+          </cell>
+          <cell r="F16">
+            <v>97.199218999999999</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>42461</v>
+          </cell>
+          <cell r="B17">
+            <v>108</v>
+          </cell>
+          <cell r="C17">
+            <v>114.19000200000001</v>
+          </cell>
+          <cell r="D17">
+            <v>107.69000200000001</v>
+          </cell>
+          <cell r="E17">
+            <v>112.08000199999999</v>
+          </cell>
+          <cell r="F17">
+            <v>100.684746</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>42491</v>
+          </cell>
+          <cell r="B18">
+            <v>112.220001</v>
+          </cell>
+          <cell r="C18">
+            <v>115</v>
+          </cell>
+          <cell r="D18">
+            <v>111.699997</v>
+          </cell>
+          <cell r="E18">
+            <v>112.69000200000001</v>
+          </cell>
+          <cell r="F18">
+            <v>101.23273500000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>42522</v>
+          </cell>
+          <cell r="B19">
+            <v>112.69000200000001</v>
+          </cell>
+          <cell r="C19">
+            <v>121.410004</v>
+          </cell>
+          <cell r="D19">
+            <v>112.07</v>
+          </cell>
+          <cell r="E19">
+            <v>121.300003</v>
+          </cell>
+          <cell r="F19">
+            <v>109.745323</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>42552</v>
+          </cell>
+          <cell r="B20">
+            <v>121.300003</v>
+          </cell>
+          <cell r="C20">
+            <v>126.07</v>
+          </cell>
+          <cell r="D20">
+            <v>120.790001</v>
+          </cell>
+          <cell r="E20">
+            <v>125.230003</v>
+          </cell>
+          <cell r="F20">
+            <v>113.300957</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>42583</v>
+          </cell>
+          <cell r="B21">
+            <v>125.30999799999999</v>
+          </cell>
+          <cell r="C21">
+            <v>125.900002</v>
+          </cell>
+          <cell r="D21">
+            <v>118.33000199999999</v>
+          </cell>
+          <cell r="E21">
+            <v>119.339996</v>
+          </cell>
+          <cell r="F21">
+            <v>107.972038</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>42614</v>
+          </cell>
+          <cell r="B22">
+            <v>119.19000200000001</v>
+          </cell>
+          <cell r="C22">
+            <v>119.970001</v>
+          </cell>
+          <cell r="D22">
+            <v>117.040001</v>
+          </cell>
+          <cell r="E22">
+            <v>118.129997</v>
+          </cell>
+          <cell r="F22">
+            <v>107.59030199999999</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>42644</v>
+          </cell>
+          <cell r="B23">
+            <v>118</v>
+          </cell>
+          <cell r="C23">
+            <v>120.199997</v>
+          </cell>
+          <cell r="D23">
+            <v>112.989998</v>
+          </cell>
+          <cell r="E23">
+            <v>115.989998</v>
+          </cell>
+          <cell r="F23">
+            <v>105.64122</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>42675</v>
+          </cell>
+          <cell r="B24">
+            <v>114.760002</v>
+          </cell>
+          <cell r="C24">
+            <v>122.5</v>
+          </cell>
+          <cell r="D24">
+            <v>111.300003</v>
+          </cell>
+          <cell r="E24">
+            <v>111.300003</v>
+          </cell>
+          <cell r="F24">
+            <v>101.369682</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>42705</v>
+          </cell>
+          <cell r="B25">
+            <v>111.360001</v>
+          </cell>
+          <cell r="C25">
+            <v>117.300003</v>
+          </cell>
+          <cell r="D25">
+            <v>109.32</v>
+          </cell>
+          <cell r="E25">
+            <v>115.209999</v>
+          </cell>
+          <cell r="F25">
+            <v>105.655914</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>42736</v>
+          </cell>
+          <cell r="B26">
+            <v>115.779999</v>
+          </cell>
+          <cell r="C26">
+            <v>117</v>
+          </cell>
+          <cell r="D26">
+            <v>110.760002</v>
+          </cell>
+          <cell r="E26">
+            <v>113.25</v>
+          </cell>
+          <cell r="F26">
+            <v>103.858459</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>42767</v>
+          </cell>
+          <cell r="B27">
+            <v>112.480003</v>
+          </cell>
+          <cell r="C27">
+            <v>122.879997</v>
+          </cell>
+          <cell r="D27">
+            <v>112.470001</v>
+          </cell>
+          <cell r="E27">
+            <v>122.209999</v>
+          </cell>
+          <cell r="F27">
+            <v>112.075424</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>42795</v>
+          </cell>
+          <cell r="B28">
+            <v>122.489998</v>
+          </cell>
+          <cell r="C28">
+            <v>129</v>
+          </cell>
+          <cell r="D28">
+            <v>122.389999</v>
+          </cell>
+          <cell r="E28">
+            <v>124.550003</v>
+          </cell>
+          <cell r="F28">
+            <v>114.97717299999999</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>42826</v>
+          </cell>
+          <cell r="B29">
+            <v>124.730003</v>
+          </cell>
+          <cell r="C29">
+            <v>125.80999799999999</v>
+          </cell>
+          <cell r="D29">
+            <v>120.949997</v>
+          </cell>
+          <cell r="E29">
+            <v>123.470001</v>
+          </cell>
+          <cell r="F29">
+            <v>113.980186</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>42856</v>
+          </cell>
+          <cell r="B30">
+            <v>123.400002</v>
+          </cell>
+          <cell r="C30">
+            <v>128.800003</v>
+          </cell>
+          <cell r="D30">
+            <v>122.339996</v>
+          </cell>
+          <cell r="E30">
+            <v>128.25</v>
+          </cell>
+          <cell r="F30">
+            <v>118.392799</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>42887</v>
+          </cell>
+          <cell r="B31">
+            <v>128.320007</v>
+          </cell>
+          <cell r="C31">
+            <v>137</v>
+          </cell>
+          <cell r="D31">
+            <v>128.11999499999999</v>
+          </cell>
+          <cell r="E31">
+            <v>132.28999300000001</v>
+          </cell>
+          <cell r="F31">
+            <v>122.932129</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>42917</v>
+          </cell>
+          <cell r="B32">
+            <v>132.78999300000001</v>
+          </cell>
+          <cell r="C32">
+            <v>137.08000200000001</v>
+          </cell>
+          <cell r="D32">
+            <v>129.570007</v>
+          </cell>
+          <cell r="E32">
+            <v>132.720001</v>
+          </cell>
+          <cell r="F32">
+            <v>123.331711</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>42948</v>
+          </cell>
+          <cell r="B33">
+            <v>133.16999799999999</v>
+          </cell>
+          <cell r="C33">
+            <v>134.970001</v>
+          </cell>
+          <cell r="D33">
+            <v>130.89999399999999</v>
+          </cell>
+          <cell r="E33">
+            <v>132.36999499999999</v>
+          </cell>
+          <cell r="F33">
+            <v>123.006477</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>42979</v>
+          </cell>
+          <cell r="B34">
+            <v>132.60000600000001</v>
+          </cell>
+          <cell r="C34">
+            <v>135.78999300000001</v>
+          </cell>
+          <cell r="D34">
+            <v>129.050003</v>
+          </cell>
+          <cell r="E34">
+            <v>130.009995</v>
+          </cell>
+          <cell r="F34">
+            <v>121.581924</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43009</v>
+          </cell>
+          <cell r="B35">
+            <v>130.16000399999999</v>
+          </cell>
+          <cell r="C35">
+            <v>144.35000600000001</v>
+          </cell>
+          <cell r="D35">
+            <v>130.020004</v>
+          </cell>
+          <cell r="E35">
+            <v>139.41000399999999</v>
+          </cell>
+          <cell r="F35">
+            <v>130.37257399999999</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43040</v>
+          </cell>
+          <cell r="B36">
+            <v>139.83000200000001</v>
+          </cell>
+          <cell r="C36">
+            <v>141.86999499999999</v>
+          </cell>
+          <cell r="D36">
+            <v>136.60000600000001</v>
+          </cell>
+          <cell r="E36">
+            <v>139.33000200000001</v>
+          </cell>
+          <cell r="F36">
+            <v>130.29774499999999</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43070</v>
+          </cell>
+          <cell r="B37">
+            <v>139.570007</v>
+          </cell>
+          <cell r="C37">
+            <v>143.800003</v>
+          </cell>
+          <cell r="D37">
+            <v>138.60000600000001</v>
+          </cell>
+          <cell r="E37">
+            <v>139.720001</v>
+          </cell>
+          <cell r="F37">
+            <v>131.462616</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43101</v>
+          </cell>
+          <cell r="B38">
+            <v>139.66000399999999</v>
+          </cell>
+          <cell r="C38">
+            <v>148.320007</v>
+          </cell>
+          <cell r="D38">
+            <v>138.10000600000001</v>
+          </cell>
+          <cell r="E38">
+            <v>138.19000199999999</v>
+          </cell>
+          <cell r="F38">
+            <v>130.02304100000001</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43132</v>
+          </cell>
+          <cell r="B39">
+            <v>137.529999</v>
+          </cell>
+          <cell r="C39">
+            <v>140.66999799999999</v>
+          </cell>
+          <cell r="D39">
+            <v>122.150002</v>
+          </cell>
+          <cell r="E39">
+            <v>129.88000500000001</v>
+          </cell>
+          <cell r="F39">
+            <v>122.20417</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43160</v>
+          </cell>
+          <cell r="B40">
+            <v>129.11000100000001</v>
+          </cell>
+          <cell r="C40">
+            <v>135.699997</v>
+          </cell>
+          <cell r="D40">
+            <v>124.900002</v>
+          </cell>
+          <cell r="E40">
+            <v>128.14999399999999</v>
+          </cell>
+          <cell r="F40">
+            <v>121.348495</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43191</v>
+          </cell>
+          <cell r="B41">
+            <v>127.82</v>
+          </cell>
+          <cell r="C41">
+            <v>132.88000500000001</v>
+          </cell>
+          <cell r="D41">
+            <v>123.540001</v>
+          </cell>
+          <cell r="E41">
+            <v>126.489998</v>
+          </cell>
+          <cell r="F41">
+            <v>119.776611</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43221</v>
+          </cell>
+          <cell r="B42">
+            <v>126.32</v>
+          </cell>
+          <cell r="C42">
+            <v>127.610001</v>
+          </cell>
+          <cell r="D42">
+            <v>118.620003</v>
+          </cell>
+          <cell r="E42">
+            <v>119.620003</v>
+          </cell>
+          <cell r="F42">
+            <v>113.271225</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43252</v>
+          </cell>
+          <cell r="B43">
+            <v>120.379997</v>
+          </cell>
+          <cell r="C43">
+            <v>124.849998</v>
+          </cell>
+          <cell r="D43">
+            <v>119.970001</v>
+          </cell>
+          <cell r="E43">
+            <v>121.339996</v>
+          </cell>
+          <cell r="F43">
+            <v>115.75209</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43282</v>
+          </cell>
+          <cell r="B44">
+            <v>121.339996</v>
+          </cell>
+          <cell r="C44">
+            <v>132.63999899999999</v>
+          </cell>
+          <cell r="D44">
+            <v>120.110001</v>
+          </cell>
+          <cell r="E44">
+            <v>132.520004</v>
+          </cell>
+          <cell r="F44">
+            <v>126.417244</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43313</v>
+          </cell>
+          <cell r="B45">
+            <v>132.38999899999999</v>
+          </cell>
+          <cell r="C45">
+            <v>137.429993</v>
+          </cell>
+          <cell r="D45">
+            <v>128.929993</v>
+          </cell>
+          <cell r="E45">
+            <v>134.69000199999999</v>
+          </cell>
+          <cell r="F45">
+            <v>128.48732000000001</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43344</v>
+          </cell>
+          <cell r="B46">
+            <v>134.69000199999999</v>
+          </cell>
+          <cell r="C46">
+            <v>143.13000500000001</v>
+          </cell>
+          <cell r="D46">
+            <v>133.44000199999999</v>
+          </cell>
+          <cell r="E46">
+            <v>138.16999799999999</v>
+          </cell>
+          <cell r="F46">
+            <v>132.68544</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43374</v>
+          </cell>
+          <cell r="B47">
+            <v>138.259995</v>
+          </cell>
+          <cell r="C47">
+            <v>141.429993</v>
+          </cell>
+          <cell r="D47">
+            <v>132.229996</v>
+          </cell>
+          <cell r="E47">
+            <v>139.990005</v>
+          </cell>
+          <cell r="F47">
+            <v>134.43319700000001</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43405</v>
+          </cell>
+          <cell r="B48">
+            <v>140.070007</v>
+          </cell>
+          <cell r="C48">
+            <v>148.75</v>
+          </cell>
+          <cell r="D48">
+            <v>139</v>
+          </cell>
+          <cell r="E48">
+            <v>146.89999399999999</v>
+          </cell>
+          <cell r="F48">
+            <v>141.06890899999999</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43435</v>
+          </cell>
+          <cell r="B49">
+            <v>145.570007</v>
+          </cell>
+          <cell r="C49">
+            <v>148.990005</v>
+          </cell>
+          <cell r="D49">
+            <v>121</v>
+          </cell>
+          <cell r="E49">
+            <v>129.050003</v>
+          </cell>
+          <cell r="F49">
+            <v>124.716644</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43466</v>
+          </cell>
+          <cell r="B50">
+            <v>128.13000500000001</v>
+          </cell>
+          <cell r="C50">
+            <v>135.19000199999999</v>
+          </cell>
+          <cell r="D50">
+            <v>125</v>
+          </cell>
+          <cell r="E50">
+            <v>133.08000200000001</v>
+          </cell>
+          <cell r="F50">
+            <v>128.61132799999999</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43497</v>
+          </cell>
+          <cell r="B51">
+            <v>134.020004</v>
+          </cell>
+          <cell r="C51">
+            <v>137.949997</v>
+          </cell>
+          <cell r="D51">
+            <v>131.259995</v>
+          </cell>
+          <cell r="E51">
+            <v>136.63999899999999</v>
+          </cell>
+          <cell r="F51">
+            <v>132.051773</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43525</v>
+          </cell>
+          <cell r="B52">
+            <v>137.220001</v>
+          </cell>
+          <cell r="C52">
+            <v>140</v>
+          </cell>
+          <cell r="D52">
+            <v>135.740005</v>
+          </cell>
+          <cell r="E52">
+            <v>139.78999300000001</v>
+          </cell>
+          <cell r="F52">
+            <v>135.991974</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43556</v>
+          </cell>
+          <cell r="B53">
+            <v>139.990005</v>
+          </cell>
+          <cell r="C53">
+            <v>141.449997</v>
+          </cell>
+          <cell r="D53">
+            <v>134.41999799999999</v>
+          </cell>
+          <cell r="E53">
+            <v>141.199997</v>
+          </cell>
+          <cell r="F53">
+            <v>137.36367799999999</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43586</v>
+          </cell>
+          <cell r="B54">
+            <v>140.949997</v>
+          </cell>
+          <cell r="C54">
+            <v>142.35000600000001</v>
+          </cell>
+          <cell r="D54">
+            <v>128.520004</v>
+          </cell>
+          <cell r="E54">
+            <v>131.14999399999999</v>
+          </cell>
+          <cell r="F54">
+            <v>127.58674600000001</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43617</v>
+          </cell>
+          <cell r="B55">
+            <v>131.5</v>
+          </cell>
+          <cell r="C55">
+            <v>144.979996</v>
+          </cell>
+          <cell r="D55">
+            <v>131.03999300000001</v>
+          </cell>
+          <cell r="E55">
+            <v>139.279999</v>
+          </cell>
+          <cell r="F55">
+            <v>136.42297400000001</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43647</v>
+          </cell>
+          <cell r="B56">
+            <v>140.199997</v>
+          </cell>
+          <cell r="C56">
+            <v>142.470001</v>
+          </cell>
+          <cell r="D56">
+            <v>127.839996</v>
+          </cell>
+          <cell r="E56">
+            <v>130.220001</v>
+          </cell>
+          <cell r="F56">
+            <v>127.54882000000001</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43678</v>
+          </cell>
+          <cell r="B57">
+            <v>130.259995</v>
+          </cell>
+          <cell r="C57">
+            <v>134.10000600000001</v>
+          </cell>
+          <cell r="D57">
+            <v>126.629997</v>
+          </cell>
+          <cell r="E57">
+            <v>128.36000100000001</v>
+          </cell>
+          <cell r="F57">
+            <v>125.726967</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>43709</v>
+          </cell>
+          <cell r="B58">
+            <v>127.989998</v>
+          </cell>
+          <cell r="C58">
+            <v>132.779999</v>
+          </cell>
+          <cell r="D58">
+            <v>126.339996</v>
+          </cell>
+          <cell r="E58">
+            <v>129.38000500000001</v>
+          </cell>
+          <cell r="F58">
+            <v>127.67564400000001</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>43739</v>
+          </cell>
+          <cell r="B59">
+            <v>130.020004</v>
+          </cell>
+          <cell r="C59">
+            <v>137.490005</v>
+          </cell>
+          <cell r="D59">
+            <v>126.099998</v>
+          </cell>
+          <cell r="E59">
+            <v>132.03999300000001</v>
+          </cell>
+          <cell r="F59">
+            <v>130.30059800000001</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>43770</v>
+          </cell>
+          <cell r="B60">
+            <v>132.050003</v>
+          </cell>
+          <cell r="C60">
+            <v>138.63000500000001</v>
+          </cell>
+          <cell r="D60">
+            <v>129.679993</v>
+          </cell>
+          <cell r="E60">
+            <v>137.490005</v>
+          </cell>
+          <cell r="F60">
+            <v>135.67881800000001</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>43800</v>
+          </cell>
+          <cell r="B61">
+            <v>137.720001</v>
+          </cell>
+          <cell r="C61">
+            <v>147.83999600000001</v>
+          </cell>
+          <cell r="D61">
+            <v>136.16000399999999</v>
+          </cell>
+          <cell r="E61">
+            <v>145.86999499999999</v>
+          </cell>
+          <cell r="F61">
+            <v>144.94572400000001</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>43831</v>
+          </cell>
+          <cell r="B62">
+            <v>145.86999499999999</v>
+          </cell>
+          <cell r="C62">
+            <v>151.19000199999999</v>
+          </cell>
+          <cell r="D62">
+            <v>141.38000500000001</v>
+          </cell>
+          <cell r="E62">
+            <v>148.86999499999999</v>
+          </cell>
+          <cell r="F62">
+            <v>147.92671200000001</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>43862</v>
+          </cell>
+          <cell r="B63">
+            <v>149.41999799999999</v>
+          </cell>
+          <cell r="C63">
+            <v>154.5</v>
+          </cell>
+          <cell r="D63">
+            <v>130.820007</v>
+          </cell>
+          <cell r="E63">
+            <v>134.479996</v>
+          </cell>
+          <cell r="F63">
+            <v>133.62789900000001</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>43891</v>
+          </cell>
+          <cell r="B64">
+            <v>134.779999</v>
+          </cell>
+          <cell r="C64">
+            <v>143.63999899999999</v>
+          </cell>
+          <cell r="D64">
+            <v>109.160004</v>
+          </cell>
+          <cell r="E64">
+            <v>131.13000500000001</v>
+          </cell>
+          <cell r="F64">
+            <v>131.13000500000001</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1392,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF185326-3EE2-4FB5-A2D7-CC74E2DCC064}">
   <dimension ref="A9:AE206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H26" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView topLeftCell="H19" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2602,7 +5309,7 @@
         <v>0/0/100/0/0</v>
       </c>
       <c r="T37" s="42" t="e">
-        <f>(Q37-$K$29)/P37</f>
+        <f t="shared" ref="T37:T47" si="20">(Q37-$K$29)/P37</f>
         <v>#VALUE!</v>
       </c>
       <c r="V37" s="13" t="str">
@@ -2663,7 +5370,7 @@
         <v>23</v>
       </c>
       <c r="T38" s="42">
-        <f>(Q38-$K$29)/P38</f>
+        <f t="shared" si="20"/>
         <v>0.3223376205682883</v>
       </c>
       <c r="V38" s="13" t="str">
@@ -2721,7 +5428,7 @@
         <v>0/0/0/0/100</v>
       </c>
       <c r="T39" s="42">
-        <f>(Q39-$K$29)/P39</f>
+        <f t="shared" si="20"/>
         <v>0.33392111087166892</v>
       </c>
       <c r="V39" s="22" t="str">
@@ -2786,7 +5493,7 @@
         <v>16</v>
       </c>
       <c r="T40" s="42">
-        <f>(Q40-$K$29)/P40</f>
+        <f t="shared" si="20"/>
         <v>0.38806029030997202</v>
       </c>
     </row>
@@ -2829,7 +5536,7 @@
         <v>22</v>
       </c>
       <c r="T41" s="42">
-        <f>(Q41-$K$29)/P41</f>
+        <f t="shared" si="20"/>
         <v>0.39673730883272995</v>
       </c>
     </row>
@@ -2872,7 +5579,7 @@
         <v>20</v>
       </c>
       <c r="T42" s="42">
-        <f>(Q42-$K$29)/P42</f>
+        <f t="shared" si="20"/>
         <v>0.51732762265540388</v>
       </c>
     </row>
@@ -2915,7 +5622,7 @@
         <v>21</v>
       </c>
       <c r="T43" s="42">
-        <f>(Q43-$K$29)/P43</f>
+        <f t="shared" si="20"/>
         <v>0.61484001684268963</v>
       </c>
     </row>
@@ -2955,7 +5662,7 @@
         <v>0/100/0/0/0</v>
       </c>
       <c r="T44" s="42">
-        <f>(Q44-$K$29)/P44</f>
+        <f t="shared" si="20"/>
         <v>0.47488152113474202</v>
       </c>
     </row>
@@ -3013,7 +5720,7 @@
         <v>6/0/0/48/45</v>
       </c>
       <c r="T45" s="42">
-        <f>(Q45-$K$29)/P45</f>
+        <f t="shared" si="20"/>
         <v>0.81850965667984033</v>
       </c>
     </row>
@@ -3071,7 +5778,7 @@
         <v>100/0/0/0/0</v>
       </c>
       <c r="T46" s="42">
-        <f>(Q46-$K$29)/P46</f>
+        <f t="shared" si="20"/>
         <v>0.2346675177606346</v>
       </c>
     </row>
@@ -3132,7 +5839,7 @@
         <v>17</v>
       </c>
       <c r="T47" s="42">
-        <f>(Q47-$K$29)/P47</f>
+        <f t="shared" si="20"/>
         <v>0.76371691721918045</v>
       </c>
     </row>
@@ -6323,4 +9030,2801 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E7809C-06A0-4276-8469-2B9A0EFA52A4}">
+  <dimension ref="B1:AA68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N10" sqref="N9:O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" customWidth="1"/>
+    <col min="27" max="27" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="G1" s="48">
+        <f>_xlfn.STDEV.S(G7:G68)</f>
+        <v>4.2439244686977476E-2</v>
+      </c>
+      <c r="H1" s="48">
+        <f>_xlfn.STDEV.S(H7:H68)</f>
+        <v>4.059297405250141E-2</v>
+      </c>
+      <c r="I1" s="48">
+        <f>_xlfn.STDEV.S(I7:I68)</f>
+        <v>6.7173758040580248E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="49">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="43">
+        <f>AVERAGE(G7:G68)</f>
+        <v>7.5816581934071434E-3</v>
+      </c>
+      <c r="H2" s="43">
+        <f>AVERAGE(H7:H68)</f>
+        <v>7.7727657934410568E-3</v>
+      </c>
+      <c r="I2" s="43">
+        <f>AVERAGE(I7:I68)</f>
+        <v>1.2777553328300311E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z3" s="47"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="G4" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="K4" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="45" t="str">
+        <f t="shared" ref="G5:I5" si="0">C5</f>
+        <v>JNJ</v>
+      </c>
+      <c r="H5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>PG</v>
+      </c>
+      <c r="I5" s="45" t="str">
+        <f t="shared" si="0"/>
+        <v>JPM</v>
+      </c>
+      <c r="K5" s="45" t="str">
+        <f t="shared" ref="K5" si="1">G5</f>
+        <v>JNJ</v>
+      </c>
+      <c r="L5" s="45" t="str">
+        <f t="shared" ref="L5" si="2">H5</f>
+        <v>PG</v>
+      </c>
+      <c r="M5" s="45" t="str">
+        <f t="shared" ref="M5" si="3">I5</f>
+        <v>JPM</v>
+      </c>
+      <c r="P5" s="45" t="str">
+        <f t="shared" ref="P5:R5" si="4">K5</f>
+        <v>JNJ</v>
+      </c>
+      <c r="Q5" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>PG</v>
+      </c>
+      <c r="R5" s="45" t="str">
+        <f t="shared" si="4"/>
+        <v>JPM</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>42005</v>
+      </c>
+      <c r="C6" s="2">
+        <f>VLOOKUP(B6,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>86.740662</v>
+      </c>
+      <c r="D6" s="2">
+        <v>71.569855000000004</v>
+      </c>
+      <c r="E6" s="2">
+        <f>VLOOKUP(B6,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>46.607315</v>
+      </c>
+      <c r="G6" t="str">
+        <f>IFERROR(C6/C5-1,"")</f>
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ref="H6:H65" si="5">IFERROR(D6/D5-1,"")</f>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" ref="I6:I65" si="6">IFERROR(E6/E5-1,"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="50" t="str">
+        <f t="array" ref="O6:O8">TRANSPOSE(K5:M5)</f>
+        <v>JNJ</v>
+      </c>
+      <c r="P6">
+        <f t="array" ref="P6:R8">MMULT(TRANSPOSE(K7:M68),K7:M68) / ROWS(K7:M68)</f>
+        <v>1.7688146114666224E-3</v>
+      </c>
+      <c r="Q6">
+        <v>7.8380126862375419E-4</v>
+      </c>
+      <c r="R6">
+        <v>1.0434238412548951E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>42036</v>
+      </c>
+      <c r="C7" s="2">
+        <f>VLOOKUP(B7,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>88.793541000000005</v>
+      </c>
+      <c r="D7" s="2">
+        <v>72.796859999999995</v>
+      </c>
+      <c r="E7" s="2">
+        <f>VLOOKUP(B7,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>52.858939999999997</v>
+      </c>
+      <c r="G7" s="42">
+        <f t="shared" ref="G7:G65" si="7">IFERROR(C7/C6-1,"")</f>
+        <v>2.3666858802622537E-2</v>
+      </c>
+      <c r="H7" s="42">
+        <f t="shared" si="5"/>
+        <v>1.7144159367096456E-2</v>
+      </c>
+      <c r="I7" s="42">
+        <f t="shared" si="6"/>
+        <v>0.13413398733653703</v>
+      </c>
+      <c r="K7" s="42">
+        <f>G7-$C$2</f>
+        <v>7.6668588026225365E-3</v>
+      </c>
+      <c r="L7" s="42">
+        <f t="shared" ref="L7:L68" si="8">H7-AVERAGE(H$2)</f>
+        <v>9.3713935736553997E-3</v>
+      </c>
+      <c r="M7" s="42">
+        <f t="shared" ref="M7:M68" si="9">I7-AVERAGE(I$2)</f>
+        <v>0.12135643400823672</v>
+      </c>
+      <c r="O7" s="50" t="str">
+        <v>PG</v>
+      </c>
+      <c r="P7">
+        <v>7.8380126862375419E-4</v>
+      </c>
+      <c r="Q7">
+        <v>1.6212122917427451E-3</v>
+      </c>
+      <c r="R7">
+        <v>3.9322950746992886E-4</v>
+      </c>
+      <c r="Z7" s="51"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>42064</v>
+      </c>
+      <c r="C8" s="2">
+        <f>VLOOKUP(B8,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>87.749092000000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70.069023000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <f>VLOOKUP(B8,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>52.255141999999999</v>
+      </c>
+      <c r="G8" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.1762668638251483E-2</v>
+      </c>
+      <c r="H8" s="42">
+        <f t="shared" si="5"/>
+        <v>-3.7471904694790337E-2</v>
+      </c>
+      <c r="I8" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.1422817029626331E-2</v>
+      </c>
+      <c r="K8" s="42">
+        <f t="shared" ref="K8:K68" si="10">G8-AVERAGE(G$2)</f>
+        <v>-1.9344326831658626E-2</v>
+      </c>
+      <c r="L8" s="42">
+        <f t="shared" si="8"/>
+        <v>-4.5244670488231394E-2</v>
+      </c>
+      <c r="M8" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.4200370357926642E-2</v>
+      </c>
+      <c r="O8" s="50" t="str">
+        <v>JPM</v>
+      </c>
+      <c r="P8">
+        <v>1.0434238412548951E-3</v>
+      </c>
+      <c r="Q8">
+        <v>3.9322950746992886E-4</v>
+      </c>
+      <c r="R8">
+        <v>4.4395345149509605E-3</v>
+      </c>
+      <c r="Z8" s="47"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>42095</v>
+      </c>
+      <c r="C9" s="2">
+        <f>VLOOKUP(B9,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>86.527923999999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>67.991066000000004</v>
+      </c>
+      <c r="E9" s="2">
+        <f>VLOOKUP(B9,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>54.566848999999998</v>
+      </c>
+      <c r="G9" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.391658844743382E-2</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" si="5"/>
+        <v>-2.9655858052994422E-2</v>
+      </c>
+      <c r="I9" s="42">
+        <f t="shared" si="6"/>
+        <v>4.4238842562134728E-2</v>
+      </c>
+      <c r="K9" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.1498246640840962E-2</v>
+      </c>
+      <c r="L9" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.7428623846435478E-2</v>
+      </c>
+      <c r="M9" s="42">
+        <f t="shared" si="9"/>
+        <v>3.1461289233834414E-2</v>
+      </c>
+      <c r="Z9" s="47"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>42125</v>
+      </c>
+      <c r="C10" s="2">
+        <f>VLOOKUP(B10,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>87.347847000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>67.572433000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <f>VLOOKUP(B10,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>57.117686999999997</v>
+      </c>
+      <c r="G10" s="42">
+        <f t="shared" si="7"/>
+        <v>9.4758196209585588E-3</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="5"/>
+        <v>-6.1571765914069099E-3</v>
+      </c>
+      <c r="I10" s="42">
+        <f t="shared" si="6"/>
+        <v>4.6747027668759156E-2</v>
+      </c>
+      <c r="K10" s="42">
+        <f t="shared" si="10"/>
+        <v>1.8941614275514154E-3</v>
+      </c>
+      <c r="L10" s="42">
+        <f t="shared" si="8"/>
+        <v>-1.3929942384847967E-2</v>
+      </c>
+      <c r="M10" s="42">
+        <f t="shared" si="9"/>
+        <v>3.3969474340458841E-2</v>
+      </c>
+      <c r="Z10" s="47"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>42156</v>
+      </c>
+      <c r="C11" s="2">
+        <f>VLOOKUP(B11,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>85.630118999999993</v>
+      </c>
+      <c r="D11" s="2">
+        <v>67.443129999999996</v>
+      </c>
+      <c r="E11" s="2">
+        <f>VLOOKUP(B11,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>58.836956000000001</v>
+      </c>
+      <c r="G11" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.9665373091565796E-2</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.91354660857046E-3</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" si="6"/>
+        <v>3.0100466078047061E-2</v>
+      </c>
+      <c r="K11" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.7247031284972939E-2</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="8"/>
+        <v>-9.6863124020115168E-3</v>
+      </c>
+      <c r="M11" s="42">
+        <f t="shared" si="9"/>
+        <v>1.732291274974675E-2</v>
+      </c>
+      <c r="P11" s="52" t="str">
+        <f>P5</f>
+        <v>JNJ</v>
+      </c>
+      <c r="Q11" s="52" t="str">
+        <f t="shared" ref="Q11:R11" si="11">Q5</f>
+        <v>PG</v>
+      </c>
+      <c r="R11" s="52" t="str">
+        <f t="shared" si="11"/>
+        <v>JPM</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11" s="47"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>42186</v>
+      </c>
+      <c r="C12" s="2">
+        <f>VLOOKUP(B12,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>88.046310000000005</v>
+      </c>
+      <c r="D12" s="2">
+        <v>66.115645999999998</v>
+      </c>
+      <c r="E12" s="2">
+        <f>VLOOKUP(B12,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>59.505549999999999</v>
+      </c>
+      <c r="G12" s="42">
+        <f t="shared" si="7"/>
+        <v>2.821660215139965E-2</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.9683012932525501E-2</v>
+      </c>
+      <c r="I12" s="42">
+        <f t="shared" si="6"/>
+        <v>1.1363504257426271E-2</v>
+      </c>
+      <c r="K12" s="42">
+        <f t="shared" si="10"/>
+        <v>2.0634943957992508E-2</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="8"/>
+        <v>-2.7455778725966558E-2</v>
+      </c>
+      <c r="M12" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.4140490708740398E-3</v>
+      </c>
+      <c r="P12" s="49">
+        <v>0.34858800493191616</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>0.51791131740519014</v>
+      </c>
+      <c r="R12" s="49">
+        <v>0.13350067770124938</v>
+      </c>
+      <c r="S12" s="35">
+        <f>SUM(P12:R12)</f>
+        <v>1.0000000000383555</v>
+      </c>
+      <c r="Z12" s="47"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C13" s="2">
+        <f>VLOOKUP(B13,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>82.572524999999999</v>
+      </c>
+      <c r="D13" s="2">
+        <v>61.416499999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f>VLOOKUP(B13,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>56.022708999999999</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" si="7"/>
+        <v>-6.2169385633537688E-2</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" si="5"/>
+        <v>-7.107464396551455E-2</v>
+      </c>
+      <c r="I13" s="42">
+        <f t="shared" si="6"/>
+        <v>-5.8529683365669216E-2</v>
+      </c>
+      <c r="K13" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.9751043826944831E-2</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="8"/>
+        <v>-7.88474097589556E-2</v>
+      </c>
+      <c r="M13" s="42">
+        <f t="shared" si="9"/>
+        <v>-7.1307236693969531E-2</v>
+      </c>
+      <c r="Z13" s="47"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>42248</v>
+      </c>
+      <c r="C14" s="2">
+        <f>VLOOKUP(B14,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>82.646431000000007</v>
+      </c>
+      <c r="D14" s="2">
+        <v>62.520218</v>
+      </c>
+      <c r="E14" s="2">
+        <f>VLOOKUP(B14,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>53.287120999999999</v>
+      </c>
+      <c r="G14" s="42">
+        <f t="shared" si="7"/>
+        <v>8.9504347844515664E-4</v>
+      </c>
+      <c r="H14" s="42">
+        <f t="shared" si="5"/>
+        <v>1.7971033842697048E-2</v>
+      </c>
+      <c r="I14" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.8829984283694672E-2</v>
+      </c>
+      <c r="K14" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.6866147149619868E-3</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="8"/>
+        <v>1.0198268049255992E-2</v>
+      </c>
+      <c r="M14" s="42">
+        <f t="shared" si="9"/>
+        <v>-6.1607537611994986E-2</v>
+      </c>
+      <c r="Z14" s="47"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>42278</v>
+      </c>
+      <c r="C15" s="2">
+        <f>VLOOKUP(B15,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>89.445830999999998</v>
+      </c>
+      <c r="D15" s="2">
+        <v>66.378838000000002</v>
+      </c>
+      <c r="E15" s="2">
+        <f>VLOOKUP(B15,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>56.153804999999998</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" si="7"/>
+        <v>8.2270945251102123E-2</v>
+      </c>
+      <c r="H15" s="42">
+        <f t="shared" si="5"/>
+        <v>6.1717954982178691E-2</v>
+      </c>
+      <c r="I15" s="42">
+        <f t="shared" si="6"/>
+        <v>5.3796939038984748E-2</v>
+      </c>
+      <c r="K15" s="42">
+        <f t="shared" si="10"/>
+        <v>7.4689287057694981E-2</v>
+      </c>
+      <c r="L15" s="42">
+        <f t="shared" si="8"/>
+        <v>5.3945189188737634E-2</v>
+      </c>
+      <c r="M15" s="42">
+        <f t="shared" si="9"/>
+        <v>4.1019385710684433E-2</v>
+      </c>
+      <c r="P15" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="53">
+        <f t="array" ref="Q15">SQRT(MMULT(MMULT(P12:R12,P6:R8),TRANSPOSE(P12:R12)))</f>
+        <v>3.4108985778233097E-2</v>
+      </c>
+      <c r="S15" s="47">
+        <f>Q15*12</f>
+        <v>0.40930782933879717</v>
+      </c>
+      <c r="Z15" s="47"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>42309</v>
+      </c>
+      <c r="C16" s="2">
+        <f>VLOOKUP(B16,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>89.63176</v>
+      </c>
+      <c r="D16" s="2">
+        <v>65.624961999999996</v>
+      </c>
+      <c r="E16" s="2">
+        <f>VLOOKUP(B16,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>58.698101000000001</v>
+      </c>
+      <c r="G16" s="42">
+        <f t="shared" si="7"/>
+        <v>2.0786770934020371E-3</v>
+      </c>
+      <c r="H16" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.1357173802891918E-2</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="6"/>
+        <v>4.5309414028132267E-2</v>
+      </c>
+      <c r="K16" s="42">
+        <f t="shared" si="10"/>
+        <v>-5.5029811000051063E-3</v>
+      </c>
+      <c r="L16" s="42">
+        <f t="shared" si="8"/>
+        <v>-1.9129939596332975E-2</v>
+      </c>
+      <c r="M16" s="42">
+        <f t="shared" si="9"/>
+        <v>3.2531860699831952E-2</v>
+      </c>
+      <c r="P16" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="53">
+        <f t="array" ref="Q16">MMULT(P12:R12,TRANSPOSE(G2:I2))</f>
+        <v>8.3742905043705136E-3</v>
+      </c>
+      <c r="S16" s="47">
+        <f>Q16*12</f>
+        <v>0.10049148605244616</v>
+      </c>
+      <c r="Z16" s="47"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>42339</v>
+      </c>
+      <c r="C17" s="2">
+        <f>VLOOKUP(B17,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>91.612457000000006</v>
+      </c>
+      <c r="D17" s="2">
+        <v>69.632271000000003</v>
+      </c>
+      <c r="E17" s="2">
+        <f>VLOOKUP(B17,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>58.125900000000001</v>
+      </c>
+      <c r="G17" s="42">
+        <f t="shared" si="7"/>
+        <v>2.2098160294967029E-2</v>
+      </c>
+      <c r="H17" s="42">
+        <f t="shared" si="5"/>
+        <v>6.1063791549319291E-2</v>
+      </c>
+      <c r="I17" s="42">
+        <f t="shared" si="6"/>
+        <v>-9.7482029273826543E-3</v>
+      </c>
+      <c r="K17" s="42">
+        <f t="shared" si="10"/>
+        <v>1.4516502101559886E-2</v>
+      </c>
+      <c r="L17" s="42">
+        <f t="shared" si="8"/>
+        <v>5.3291025755878234E-2</v>
+      </c>
+      <c r="M17" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.2525756255682965E-2</v>
+      </c>
+      <c r="P17" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="36">
+        <f>(Q16-C2)/Q15</f>
+        <v>-0.22356893122562119</v>
+      </c>
+      <c r="S17" s="47"/>
+      <c r="Z17" s="47"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>42370</v>
+      </c>
+      <c r="C18" s="2">
+        <f>VLOOKUP(B18,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>93.146477000000004</v>
+      </c>
+      <c r="D18" s="2">
+        <v>71.631538000000006</v>
+      </c>
+      <c r="E18" s="2">
+        <f>VLOOKUP(B18,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>52.377575</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" si="7"/>
+        <v>1.6744666066537128E-2</v>
+      </c>
+      <c r="H18" s="42">
+        <f t="shared" si="5"/>
+        <v>2.8711787958201285E-2</v>
+      </c>
+      <c r="I18" s="42">
+        <f t="shared" si="6"/>
+        <v>-9.8894382710633333E-2</v>
+      </c>
+      <c r="K18" s="42">
+        <f t="shared" si="10"/>
+        <v>9.1630078731299858E-3</v>
+      </c>
+      <c r="L18" s="42">
+        <f t="shared" si="8"/>
+        <v>2.0939022164760228E-2</v>
+      </c>
+      <c r="M18" s="42">
+        <f t="shared" si="9"/>
+        <v>-0.11167193603893365</v>
+      </c>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>42401</v>
+      </c>
+      <c r="C19" s="2">
+        <f>VLOOKUP(B19,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>93.833183000000005</v>
+      </c>
+      <c r="D19" s="2">
+        <v>71.017464000000004</v>
+      </c>
+      <c r="E19" s="2">
+        <f>VLOOKUP(B19,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>49.893093</v>
+      </c>
+      <c r="G19" s="42">
+        <f t="shared" si="7"/>
+        <v>7.3723239151599618E-3</v>
+      </c>
+      <c r="H19" s="42">
+        <f t="shared" si="5"/>
+        <v>-8.5726764654976417E-3</v>
+      </c>
+      <c r="I19" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.7434078420010906E-2</v>
+      </c>
+      <c r="K19" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.0933427824718163E-4</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="8"/>
+        <v>-1.6345442258938699E-2</v>
+      </c>
+      <c r="M19" s="42">
+        <f t="shared" si="9"/>
+        <v>-6.021163174831122E-2</v>
+      </c>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>42430</v>
+      </c>
+      <c r="C20" s="2">
+        <f>VLOOKUP(B20,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>97.199218999999999</v>
+      </c>
+      <c r="D20" s="2">
+        <v>72.804175999999998</v>
+      </c>
+      <c r="E20" s="2">
+        <f>VLOOKUP(B20,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>52.480803999999999</v>
+      </c>
+      <c r="G20" s="42">
+        <f t="shared" si="7"/>
+        <v>3.5872554808249468E-2</v>
+      </c>
+      <c r="H20" s="42">
+        <f t="shared" si="5"/>
+        <v>2.5158769397904734E-2</v>
+      </c>
+      <c r="I20" s="42">
+        <f t="shared" si="6"/>
+        <v>5.1865114876722407E-2</v>
+      </c>
+      <c r="K20" s="42">
+        <f t="shared" si="10"/>
+        <v>2.8290896614842326E-2</v>
+      </c>
+      <c r="L20" s="42">
+        <f t="shared" si="8"/>
+        <v>1.7386003604463678E-2</v>
+      </c>
+      <c r="M20" s="42">
+        <f t="shared" si="9"/>
+        <v>3.9087561548422092E-2</v>
+      </c>
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>42461</v>
+      </c>
+      <c r="C21" s="2">
+        <f>VLOOKUP(B21,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>100.684746</v>
+      </c>
+      <c r="D21" s="2">
+        <v>70.867103999999998</v>
+      </c>
+      <c r="E21" s="2">
+        <f>VLOOKUP(B21,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>56.007893000000003</v>
+      </c>
+      <c r="G21" s="42">
+        <f t="shared" si="7"/>
+        <v>3.5859619407024201E-2</v>
+      </c>
+      <c r="H21" s="42">
+        <f t="shared" si="5"/>
+        <v>-2.6606605643060943E-2</v>
+      </c>
+      <c r="I21" s="42">
+        <f t="shared" si="6"/>
+        <v>6.7207221139371276E-2</v>
+      </c>
+      <c r="K21" s="42">
+        <f t="shared" si="10"/>
+        <v>2.8277961213617059E-2</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.4379371436502E-2</v>
+      </c>
+      <c r="M21" s="42">
+        <f t="shared" si="9"/>
+        <v>5.4429667811070961E-2</v>
+      </c>
+      <c r="Z21" s="47"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>42491</v>
+      </c>
+      <c r="C22" s="2">
+        <f>VLOOKUP(B22,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>101.23273500000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>72.267593000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <f>VLOOKUP(B22,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>58.270561000000001</v>
+      </c>
+      <c r="G22" s="42">
+        <f t="shared" si="7"/>
+        <v>5.442621864487851E-3</v>
+      </c>
+      <c r="H22" s="42">
+        <f t="shared" si="5"/>
+        <v>1.9762187544731802E-2</v>
+      </c>
+      <c r="I22" s="42">
+        <f t="shared" si="6"/>
+        <v>4.0399091606606152E-2</v>
+      </c>
+      <c r="K22" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.1390363289192924E-3</v>
+      </c>
+      <c r="L22" s="42">
+        <f t="shared" si="8"/>
+        <v>1.1989421751290745E-2</v>
+      </c>
+      <c r="M22" s="42">
+        <f t="shared" si="9"/>
+        <v>2.7621538278305841E-2</v>
+      </c>
+      <c r="Z22" s="47"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>42522</v>
+      </c>
+      <c r="C23" s="2">
+        <f>VLOOKUP(B23,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>109.745323</v>
+      </c>
+      <c r="D23" s="2">
+        <v>75.504645999999994</v>
+      </c>
+      <c r="E23" s="2">
+        <f>VLOOKUP(B23,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>55.476215000000003</v>
+      </c>
+      <c r="G23" s="42">
+        <f t="shared" si="7"/>
+        <v>8.4089281989664588E-2</v>
+      </c>
+      <c r="H23" s="42">
+        <f t="shared" si="5"/>
+        <v>4.4792594655809204E-2</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.7954678177888121E-2</v>
+      </c>
+      <c r="K23" s="42">
+        <f t="shared" si="10"/>
+        <v>7.6507623796257446E-2</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="8"/>
+        <v>3.7019828862368147E-2</v>
+      </c>
+      <c r="M23" s="42">
+        <f t="shared" si="9"/>
+        <v>-6.0732231506188436E-2</v>
+      </c>
+      <c r="Z23" s="47"/>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
+        <v>42552</v>
+      </c>
+      <c r="C24" s="2">
+        <f>VLOOKUP(B24,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>113.300957</v>
+      </c>
+      <c r="D24" s="2">
+        <v>76.325057999999999</v>
+      </c>
+      <c r="E24" s="2">
+        <f>VLOOKUP(B24,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>57.109982000000002</v>
+      </c>
+      <c r="G24" s="42">
+        <f t="shared" si="7"/>
+        <v>3.239895699245432E-2</v>
+      </c>
+      <c r="H24" s="42">
+        <f t="shared" si="5"/>
+        <v>1.0865715468687975E-2</v>
+      </c>
+      <c r="I24" s="42">
+        <f t="shared" si="6"/>
+        <v>2.9449864234609269E-2</v>
+      </c>
+      <c r="K24" s="42">
+        <f t="shared" si="10"/>
+        <v>2.4817298799047177E-2</v>
+      </c>
+      <c r="L24" s="42">
+        <f t="shared" si="8"/>
+        <v>3.0929496752469185E-3</v>
+      </c>
+      <c r="M24" s="42">
+        <f t="shared" si="9"/>
+        <v>1.6672310906308958E-2</v>
+      </c>
+      <c r="Z24" s="47"/>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>42583</v>
+      </c>
+      <c r="C25" s="2">
+        <f>VLOOKUP(B25,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>107.972038</v>
+      </c>
+      <c r="D25" s="2">
+        <v>78.468536</v>
+      </c>
+      <c r="E25" s="2">
+        <f>VLOOKUP(B25,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>60.730536999999998</v>
+      </c>
+      <c r="G25" s="42">
+        <f t="shared" si="7"/>
+        <v>-4.7033309700993953E-2</v>
+      </c>
+      <c r="H25" s="42">
+        <f t="shared" si="5"/>
+        <v>2.8083542366911907E-2</v>
+      </c>
+      <c r="I25" s="42">
+        <f t="shared" si="6"/>
+        <v>6.3396185276332284E-2</v>
+      </c>
+      <c r="K25" s="42">
+        <f t="shared" si="10"/>
+        <v>-5.4614967894401095E-2</v>
+      </c>
+      <c r="L25" s="42">
+        <f t="shared" si="8"/>
+        <v>2.031077657347085E-2</v>
+      </c>
+      <c r="M25" s="42">
+        <f t="shared" si="9"/>
+        <v>5.061863194803197E-2</v>
+      </c>
+      <c r="Z25" s="47"/>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>42614</v>
+      </c>
+      <c r="C26" s="2">
+        <f>VLOOKUP(B26,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>107.59030199999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>80.661461000000003</v>
+      </c>
+      <c r="E26" s="2">
+        <f>VLOOKUP(B26,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>59.911797</v>
+      </c>
+      <c r="G26" s="42">
+        <f t="shared" si="7"/>
+        <v>-3.5355079617929164E-3</v>
+      </c>
+      <c r="H26" s="42">
+        <f t="shared" si="5"/>
+        <v>2.7946551723610602E-2</v>
+      </c>
+      <c r="I26" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.3481520836873151E-2</v>
+      </c>
+      <c r="K26" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.1117166155200059E-2</v>
+      </c>
+      <c r="L26" s="42">
+        <f t="shared" si="8"/>
+        <v>2.0173785930169545E-2</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.6259074165173462E-2</v>
+      </c>
+      <c r="Z26" s="47"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>42644</v>
+      </c>
+      <c r="C27" s="2">
+        <f>VLOOKUP(B27,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>105.64122</v>
+      </c>
+      <c r="D27" s="2">
+        <v>78.010193000000001</v>
+      </c>
+      <c r="E27" s="2">
+        <f>VLOOKUP(B27,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>62.314025999999998</v>
+      </c>
+      <c r="G27" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.8115777758482277E-2</v>
+      </c>
+      <c r="H27" s="42">
+        <f t="shared" si="5"/>
+        <v>-3.2869079819915492E-2</v>
+      </c>
+      <c r="I27" s="42">
+        <f t="shared" si="6"/>
+        <v>4.0096093261899668E-2</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.5697435951889419E-2</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" si="8"/>
+        <v>-4.0641845613356549E-2</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="9"/>
+        <v>2.7318539933599357E-2</v>
+      </c>
+      <c r="Z27" s="47"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>42675</v>
+      </c>
+      <c r="C28" s="2">
+        <f>VLOOKUP(B28,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>101.369682</v>
+      </c>
+      <c r="D28" s="2">
+        <v>74.681419000000005</v>
+      </c>
+      <c r="E28" s="2">
+        <f>VLOOKUP(B28,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>72.654205000000005</v>
+      </c>
+      <c r="G28" s="42">
+        <f t="shared" si="7"/>
+        <v>-4.0434387259064231E-2</v>
+      </c>
+      <c r="H28" s="42">
+        <f t="shared" si="5"/>
+        <v>-4.2671013517425749E-2</v>
+      </c>
+      <c r="I28" s="42">
+        <f t="shared" si="6"/>
+        <v>0.16593662235850415</v>
+      </c>
+      <c r="K28" s="42">
+        <f t="shared" si="10"/>
+        <v>-4.8016045452471373E-2</v>
+      </c>
+      <c r="L28" s="42">
+        <f t="shared" si="8"/>
+        <v>-5.0443779310866806E-2</v>
+      </c>
+      <c r="M28" s="42">
+        <f t="shared" si="9"/>
+        <v>0.15315906903020385</v>
+      </c>
+      <c r="Z28" s="47"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>42705</v>
+      </c>
+      <c r="C29" s="2">
+        <f>VLOOKUP(B29,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>105.655914</v>
+      </c>
+      <c r="D29" s="2">
+        <v>76.148612999999997</v>
+      </c>
+      <c r="E29" s="2">
+        <f>VLOOKUP(B29,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>77.475470999999999</v>
+      </c>
+      <c r="G29" s="42">
+        <f t="shared" si="7"/>
+        <v>4.2283174963496428E-2</v>
+      </c>
+      <c r="H29" s="42">
+        <f t="shared" si="5"/>
+        <v>1.9646038059346393E-2</v>
+      </c>
+      <c r="I29" s="42">
+        <f t="shared" si="6"/>
+        <v>6.6359077220650819E-2</v>
+      </c>
+      <c r="K29" s="42">
+        <f t="shared" si="10"/>
+        <v>3.4701516770089286E-2</v>
+      </c>
+      <c r="L29" s="42">
+        <f t="shared" si="8"/>
+        <v>1.1873272265905337E-2</v>
+      </c>
+      <c r="M29" s="42">
+        <f t="shared" si="9"/>
+        <v>5.3581523892350505E-2</v>
+      </c>
+      <c r="Z29" s="47"/>
+    </row>
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>42736</v>
+      </c>
+      <c r="C30" s="2">
+        <f>VLOOKUP(B30,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>103.858459</v>
+      </c>
+      <c r="D30" s="2">
+        <v>79.336578000000003</v>
+      </c>
+      <c r="E30" s="2">
+        <f>VLOOKUP(B30,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>76.696121000000005</v>
+      </c>
+      <c r="G30" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.7012346322610949E-2</v>
+      </c>
+      <c r="H30" s="42">
+        <f t="shared" si="5"/>
+        <v>4.1865043556341686E-2</v>
+      </c>
+      <c r="I30" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.0059312837220391E-2</v>
+      </c>
+      <c r="K30" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.4594004516018092E-2</v>
+      </c>
+      <c r="L30" s="42">
+        <f t="shared" si="8"/>
+        <v>3.4092277762900629E-2</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.2836866165520702E-2</v>
+      </c>
+      <c r="Z30" s="47"/>
+    </row>
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>42767</v>
+      </c>
+      <c r="C31" s="2">
+        <f>VLOOKUP(B31,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>112.075424</v>
+      </c>
+      <c r="D31" s="2">
+        <v>83.132401000000002</v>
+      </c>
+      <c r="E31" s="2">
+        <f>VLOOKUP(B31,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>82.578963999999999</v>
+      </c>
+      <c r="G31" s="42">
+        <f t="shared" si="7"/>
+        <v>7.9116954739334222E-2</v>
+      </c>
+      <c r="H31" s="42">
+        <f t="shared" si="5"/>
+        <v>4.7844551601406327E-2</v>
+      </c>
+      <c r="I31" s="42">
+        <f t="shared" si="6"/>
+        <v>7.6703266388139735E-2</v>
+      </c>
+      <c r="K31" s="42">
+        <f t="shared" si="10"/>
+        <v>7.153529654592708E-2</v>
+      </c>
+      <c r="L31" s="42">
+        <f t="shared" si="8"/>
+        <v>4.007178580796527E-2</v>
+      </c>
+      <c r="M31" s="42">
+        <f t="shared" si="9"/>
+        <v>6.392571305983942E-2</v>
+      </c>
+      <c r="Z31" s="47"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>42795</v>
+      </c>
+      <c r="C32" s="2">
+        <f>VLOOKUP(B32,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>114.97717299999999</v>
+      </c>
+      <c r="D32" s="2">
+        <v>82.018737999999999</v>
+      </c>
+      <c r="E32" s="2">
+        <f>VLOOKUP(B32,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>80.045653999999999</v>
+      </c>
+      <c r="G32" s="42">
+        <f t="shared" si="7"/>
+        <v>2.5891037449923049E-2</v>
+      </c>
+      <c r="H32" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.3396256893867475E-2</v>
+      </c>
+      <c r="I32" s="42">
+        <f t="shared" si="6"/>
+        <v>-3.0677425306522399E-2</v>
+      </c>
+      <c r="K32" s="42">
+        <f t="shared" si="10"/>
+        <v>1.8309379256515906E-2</v>
+      </c>
+      <c r="L32" s="42">
+        <f t="shared" si="8"/>
+        <v>-2.1169022687308532E-2</v>
+      </c>
+      <c r="M32" s="42">
+        <f t="shared" si="9"/>
+        <v>-4.3454978634822714E-2</v>
+      </c>
+      <c r="Z32" s="47"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>42826</v>
+      </c>
+      <c r="C33" s="2">
+        <f>VLOOKUP(B33,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>113.980186</v>
+      </c>
+      <c r="D33" s="2">
+        <v>79.718384</v>
+      </c>
+      <c r="E33" s="2">
+        <f>VLOOKUP(B33,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>79.280190000000005</v>
+      </c>
+      <c r="G33" s="42">
+        <f t="shared" si="7"/>
+        <v>-8.6711733641249289E-3</v>
+      </c>
+      <c r="H33" s="42">
+        <f t="shared" si="5"/>
+        <v>-2.8046688550608989E-2</v>
+      </c>
+      <c r="I33" s="42">
+        <f t="shared" si="6"/>
+        <v>-9.5628427247279602E-3</v>
+      </c>
+      <c r="K33" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.6252831557532071E-2</v>
+      </c>
+      <c r="L33" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.5819454344050046E-2</v>
+      </c>
+      <c r="M33" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.2340396053028271E-2</v>
+      </c>
+      <c r="Z33" s="47"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>42856</v>
+      </c>
+      <c r="C34" s="2">
+        <f>VLOOKUP(B34,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>118.392799</v>
+      </c>
+      <c r="D34" s="2">
+        <v>81.027512000000002</v>
+      </c>
+      <c r="E34" s="2">
+        <f>VLOOKUP(B34,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>75.724318999999994</v>
+      </c>
+      <c r="G34" s="42">
+        <f t="shared" si="7"/>
+        <v>3.8713860319547155E-2</v>
+      </c>
+      <c r="H34" s="42">
+        <f t="shared" si="5"/>
+        <v>1.6421908401956564E-2</v>
+      </c>
+      <c r="I34" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.4851948513241591E-2</v>
+      </c>
+      <c r="K34" s="42">
+        <f t="shared" si="10"/>
+        <v>3.1132202126140013E-2</v>
+      </c>
+      <c r="L34" s="42">
+        <f t="shared" si="8"/>
+        <v>8.6491426085155074E-3</v>
+      </c>
+      <c r="M34" s="42">
+        <f t="shared" si="9"/>
+        <v>-5.7629501841541905E-2</v>
+      </c>
+      <c r="Z34" s="47"/>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>42887</v>
+      </c>
+      <c r="C35" s="2">
+        <f>VLOOKUP(B35,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>122.932129</v>
+      </c>
+      <c r="D35" s="2">
+        <v>80.162895000000006</v>
+      </c>
+      <c r="E35" s="2">
+        <f>VLOOKUP(B35,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>84.250800999999996</v>
+      </c>
+      <c r="G35" s="42">
+        <f t="shared" si="7"/>
+        <v>3.8341267698215331E-2</v>
+      </c>
+      <c r="H35" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.0670659614971267E-2</v>
+      </c>
+      <c r="I35" s="42">
+        <f t="shared" si="6"/>
+        <v>0.11259899214148095</v>
+      </c>
+      <c r="K35" s="42">
+        <f t="shared" si="10"/>
+        <v>3.0759609504808189E-2</v>
+      </c>
+      <c r="L35" s="42">
+        <f t="shared" si="8"/>
+        <v>-1.8443425408412324E-2</v>
+      </c>
+      <c r="M35" s="42">
+        <f t="shared" si="9"/>
+        <v>9.9821438813180632E-2</v>
+      </c>
+      <c r="Z35" s="47"/>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>42917</v>
+      </c>
+      <c r="C36" s="2">
+        <f>VLOOKUP(B36,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>123.331711</v>
+      </c>
+      <c r="D36" s="2">
+        <v>83.538651000000002</v>
+      </c>
+      <c r="E36" s="2">
+        <f>VLOOKUP(B36,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>84.619513999999995</v>
+      </c>
+      <c r="G36" s="42">
+        <f t="shared" si="7"/>
+        <v>3.2504277217877409E-3</v>
+      </c>
+      <c r="H36" s="42">
+        <f t="shared" si="5"/>
+        <v>4.2111203693429466E-2</v>
+      </c>
+      <c r="I36" s="42">
+        <f t="shared" si="6"/>
+        <v>4.3763738222499793E-3</v>
+      </c>
+      <c r="K36" s="42">
+        <f t="shared" si="10"/>
+        <v>-4.3312304716194025E-3</v>
+      </c>
+      <c r="L36" s="42">
+        <f t="shared" si="8"/>
+        <v>3.433843789998841E-2</v>
+      </c>
+      <c r="M36" s="42">
+        <f t="shared" si="9"/>
+        <v>-8.4011795060503318E-3</v>
+      </c>
+      <c r="Z36" s="47"/>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>42948</v>
+      </c>
+      <c r="C37" s="2">
+        <f>VLOOKUP(B37,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>123.006477</v>
+      </c>
+      <c r="D37" s="2">
+        <v>85.537857000000002</v>
+      </c>
+      <c r="E37" s="2">
+        <f>VLOOKUP(B37,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>84.241516000000004</v>
+      </c>
+      <c r="G37" s="42">
+        <f t="shared" si="7"/>
+        <v>-2.6370671205558915E-3</v>
+      </c>
+      <c r="H37" s="42">
+        <f t="shared" si="5"/>
+        <v>2.3931509260306294E-2</v>
+      </c>
+      <c r="I37" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.4670310916697931E-3</v>
+      </c>
+      <c r="K37" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.0218725313963034E-2</v>
+      </c>
+      <c r="L37" s="42">
+        <f t="shared" si="8"/>
+        <v>1.6158743466865237E-2</v>
+      </c>
+      <c r="M37" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.7244584419970104E-2</v>
+      </c>
+      <c r="Z37" s="47"/>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C38" s="2">
+        <f>VLOOKUP(B38,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>121.581924</v>
+      </c>
+      <c r="D38" s="2">
+        <v>84.341988000000001</v>
+      </c>
+      <c r="E38" s="2">
+        <f>VLOOKUP(B38,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>88.523582000000005</v>
+      </c>
+      <c r="G38" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.15811218623878E-2</v>
+      </c>
+      <c r="H38" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.3980581720676066E-2</v>
+      </c>
+      <c r="I38" s="42">
+        <f t="shared" si="6"/>
+        <v>5.0830827878263651E-2</v>
+      </c>
+      <c r="K38" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.9162780055794942E-2</v>
+      </c>
+      <c r="L38" s="42">
+        <f t="shared" si="8"/>
+        <v>-2.1753347514117123E-2</v>
+      </c>
+      <c r="M38" s="42">
+        <f t="shared" si="9"/>
+        <v>3.8053274549963337E-2</v>
+      </c>
+      <c r="Z38" s="47"/>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>43009</v>
+      </c>
+      <c r="C39" s="2">
+        <f>VLOOKUP(B39,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>130.37257399999999</v>
+      </c>
+      <c r="D39" s="2">
+        <v>80.040520000000001</v>
+      </c>
+      <c r="E39" s="2">
+        <f>VLOOKUP(B39,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>93.250525999999994</v>
+      </c>
+      <c r="G39" s="42">
+        <f t="shared" si="7"/>
+        <v>7.2302277433938134E-2</v>
+      </c>
+      <c r="H39" s="42">
+        <f t="shared" si="5"/>
+        <v>-5.1000315524931672E-2</v>
+      </c>
+      <c r="I39" s="42">
+        <f t="shared" si="6"/>
+        <v>5.3397568119193162E-2</v>
+      </c>
+      <c r="K39" s="42">
+        <f t="shared" si="10"/>
+        <v>6.4720619240530991E-2</v>
+      </c>
+      <c r="L39" s="42">
+        <f t="shared" si="8"/>
+        <v>-5.8773081318372729E-2</v>
+      </c>
+      <c r="M39" s="42">
+        <f t="shared" si="9"/>
+        <v>4.0620014790892847E-2</v>
+      </c>
+      <c r="Z39" s="47"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>43040</v>
+      </c>
+      <c r="C40" s="2">
+        <f>VLOOKUP(B40,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>130.29774499999999</v>
+      </c>
+      <c r="D40" s="2">
+        <v>84.048980999999998</v>
+      </c>
+      <c r="E40" s="2">
+        <f>VLOOKUP(B40,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>97.440787999999998</v>
+      </c>
+      <c r="G40" s="42">
+        <f t="shared" si="7"/>
+        <v>-5.7396274158083571E-4</v>
+      </c>
+      <c r="H40" s="42">
+        <f t="shared" si="5"/>
+        <v>5.0080396779031311E-2</v>
+      </c>
+      <c r="I40" s="42">
+        <f t="shared" si="6"/>
+        <v>4.4935532052655658E-2</v>
+      </c>
+      <c r="K40" s="42">
+        <f t="shared" si="10"/>
+        <v>-8.1556209349879782E-3</v>
+      </c>
+      <c r="L40" s="42">
+        <f t="shared" si="8"/>
+        <v>4.2307630985590254E-2</v>
+      </c>
+      <c r="M40" s="42">
+        <f t="shared" si="9"/>
+        <v>3.2157978724355343E-2</v>
+      </c>
+      <c r="Z40" s="47"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>43070</v>
+      </c>
+      <c r="C41" s="2">
+        <f>VLOOKUP(B41,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>131.462616</v>
+      </c>
+      <c r="D41" s="2">
+        <v>85.814209000000005</v>
+      </c>
+      <c r="E41" s="2">
+        <f>VLOOKUP(B41,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>99.696892000000005</v>
+      </c>
+      <c r="G41" s="42">
+        <f t="shared" si="7"/>
+        <v>8.9400702982236346E-3</v>
+      </c>
+      <c r="H41" s="42">
+        <f t="shared" si="5"/>
+        <v>2.1002372414247406E-2</v>
+      </c>
+      <c r="I41" s="42">
+        <f t="shared" si="6"/>
+        <v>2.3153589439363076E-2</v>
+      </c>
+      <c r="K41" s="42">
+        <f t="shared" si="10"/>
+        <v>1.3584121048164912E-3</v>
+      </c>
+      <c r="L41" s="42">
+        <f t="shared" si="8"/>
+        <v>1.3229606620806349E-2</v>
+      </c>
+      <c r="M41" s="42">
+        <f t="shared" si="9"/>
+        <v>1.0376036111062765E-2</v>
+      </c>
+      <c r="Z41" s="47"/>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>43101</v>
+      </c>
+      <c r="C42" s="2">
+        <f>VLOOKUP(B42,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>130.02304100000001</v>
+      </c>
+      <c r="D42" s="2">
+        <v>80.639945999999995</v>
+      </c>
+      <c r="E42" s="2">
+        <f>VLOOKUP(B42,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>107.83560900000001</v>
+      </c>
+      <c r="G42" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.0950451495655544E-2</v>
+      </c>
+      <c r="H42" s="42">
+        <f t="shared" si="5"/>
+        <v>-6.0296110169820616E-2</v>
+      </c>
+      <c r="I42" s="42">
+        <f t="shared" si="6"/>
+        <v>8.1634611036821569E-2</v>
+      </c>
+      <c r="K42" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.8532109689062687E-2</v>
+      </c>
+      <c r="L42" s="42">
+        <f t="shared" si="8"/>
+        <v>-6.8068875963261666E-2</v>
+      </c>
+      <c r="M42" s="42">
+        <f t="shared" si="9"/>
+        <v>6.8857057708521255E-2</v>
+      </c>
+      <c r="Z42" s="47"/>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>43132</v>
+      </c>
+      <c r="C43" s="2">
+        <f>VLOOKUP(B43,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>122.20417</v>
+      </c>
+      <c r="D43" s="2">
+        <v>73.894965999999997</v>
+      </c>
+      <c r="E43" s="2">
+        <f>VLOOKUP(B43,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>108.23803700000001</v>
+      </c>
+      <c r="G43" s="42">
+        <f t="shared" si="7"/>
+        <v>-6.0134503391595096E-2</v>
+      </c>
+      <c r="H43" s="42">
+        <f t="shared" si="5"/>
+        <v>-8.3643161169775548E-2</v>
+      </c>
+      <c r="I43" s="42">
+        <f t="shared" si="6"/>
+        <v>3.7318656029474706E-3</v>
+      </c>
+      <c r="K43" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.7716161585002238E-2</v>
+      </c>
+      <c r="L43" s="42">
+        <f t="shared" si="8"/>
+        <v>-9.1415926963216598E-2</v>
+      </c>
+      <c r="M43" s="42">
+        <f t="shared" si="9"/>
+        <v>-9.0456877253528405E-3</v>
+      </c>
+      <c r="Z43" s="47"/>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>43160</v>
+      </c>
+      <c r="C44" s="2">
+        <f>VLOOKUP(B44,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>121.348495</v>
+      </c>
+      <c r="D44" s="2">
+        <v>74.610207000000003</v>
+      </c>
+      <c r="E44" s="2">
+        <f>VLOOKUP(B44,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>103.05574</v>
+      </c>
+      <c r="G44" s="42">
+        <f t="shared" si="7"/>
+        <v>-7.0020114698213787E-3</v>
+      </c>
+      <c r="H44" s="42">
+        <f t="shared" si="5"/>
+        <v>9.6791573055192703E-3</v>
+      </c>
+      <c r="I44" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.7878704599936595E-2</v>
+      </c>
+      <c r="K44" s="42">
+        <f t="shared" si="10"/>
+        <v>-1.4583669663228521E-2</v>
+      </c>
+      <c r="L44" s="42">
+        <f t="shared" si="8"/>
+        <v>1.9063915120782135E-3</v>
+      </c>
+      <c r="M44" s="42">
+        <f t="shared" si="9"/>
+        <v>-6.0656257928236909E-2</v>
+      </c>
+      <c r="Z44" s="47"/>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>43191</v>
+      </c>
+      <c r="C45" s="2">
+        <f>VLOOKUP(B45,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>119.776611</v>
+      </c>
+      <c r="D45" s="2">
+        <v>68.078979000000004</v>
+      </c>
+      <c r="E45" s="2">
+        <f>VLOOKUP(B45,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>101.940552</v>
+      </c>
+      <c r="G45" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.2953469262226958E-2</v>
+      </c>
+      <c r="H45" s="42">
+        <f t="shared" si="5"/>
+        <v>-8.7537995974196869E-2</v>
+      </c>
+      <c r="I45" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.0821211899502137E-2</v>
+      </c>
+      <c r="K45" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.05351274556341E-2</v>
+      </c>
+      <c r="L45" s="42">
+        <f t="shared" si="8"/>
+        <v>-9.5310761767637919E-2</v>
+      </c>
+      <c r="M45" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.3598765227802448E-2</v>
+      </c>
+      <c r="Z45" s="47"/>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>43221</v>
+      </c>
+      <c r="C46" s="2">
+        <f>VLOOKUP(B46,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>113.271225</v>
+      </c>
+      <c r="D46" s="2">
+        <v>69.497482000000005</v>
+      </c>
+      <c r="E46" s="2">
+        <f>VLOOKUP(B46,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>100.790375</v>
+      </c>
+      <c r="G46" s="42">
+        <f t="shared" si="7"/>
+        <v>-5.4312657084612304E-2</v>
+      </c>
+      <c r="H46" s="42">
+        <f t="shared" si="5"/>
+        <v>2.0836137980271507E-2</v>
+      </c>
+      <c r="I46" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.128282099159128E-2</v>
+      </c>
+      <c r="K46" s="42">
+        <f t="shared" si="10"/>
+        <v>-6.1894315278019446E-2</v>
+      </c>
+      <c r="L46" s="42">
+        <f t="shared" si="8"/>
+        <v>1.3063372186830451E-2</v>
+      </c>
+      <c r="M46" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.4060374319891591E-2</v>
+      </c>
+      <c r="Z46" s="47"/>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B47" s="1">
+        <v>43252</v>
+      </c>
+      <c r="C47" s="2">
+        <f>VLOOKUP(B47,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>115.75209</v>
+      </c>
+      <c r="D47" s="2">
+        <v>74.142052000000007</v>
+      </c>
+      <c r="E47" s="2">
+        <f>VLOOKUP(B47,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>98.143683999999993</v>
+      </c>
+      <c r="G47" s="42">
+        <f t="shared" si="7"/>
+        <v>2.1901987905577958E-2</v>
+      </c>
+      <c r="H47" s="42">
+        <f t="shared" si="5"/>
+        <v>6.683076661683951E-2</v>
+      </c>
+      <c r="I47" s="42">
+        <f t="shared" si="6"/>
+        <v>-2.6259362563141653E-2</v>
+      </c>
+      <c r="K47" s="42">
+        <f t="shared" si="10"/>
+        <v>1.4320329712170815E-2</v>
+      </c>
+      <c r="L47" s="42">
+        <f t="shared" si="8"/>
+        <v>5.9058000823398453E-2</v>
+      </c>
+      <c r="M47" s="42">
+        <f t="shared" si="9"/>
+        <v>-3.9036915891441967E-2</v>
+      </c>
+      <c r="Z47" s="47"/>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>43282</v>
+      </c>
+      <c r="C48" s="2">
+        <f>VLOOKUP(B48,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>126.417244</v>
+      </c>
+      <c r="D48" s="2">
+        <v>76.820503000000002</v>
+      </c>
+      <c r="E48" s="2">
+        <f>VLOOKUP(B48,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>108.26887499999999</v>
+      </c>
+      <c r="G48" s="42">
+        <f t="shared" si="7"/>
+        <v>9.2137895739074827E-2</v>
+      </c>
+      <c r="H48" s="42">
+        <f t="shared" si="5"/>
+        <v>3.6125935656595942E-2</v>
+      </c>
+      <c r="I48" s="42">
+        <f t="shared" si="6"/>
+        <v>0.10316701582141552</v>
+      </c>
+      <c r="K48" s="42">
+        <f t="shared" si="10"/>
+        <v>8.4556237545667684E-2</v>
+      </c>
+      <c r="L48" s="42">
+        <f t="shared" si="8"/>
+        <v>2.8353169863154885E-2</v>
+      </c>
+      <c r="M48" s="42">
+        <f t="shared" si="9"/>
+        <v>9.0389462493115205E-2</v>
+      </c>
+      <c r="Z48" s="47"/>
+    </row>
+    <row r="49" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>43313</v>
+      </c>
+      <c r="C49" s="2">
+        <f>VLOOKUP(B49,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>128.48732000000001</v>
+      </c>
+      <c r="D49" s="2">
+        <v>79.501846</v>
+      </c>
+      <c r="E49" s="2">
+        <f>VLOOKUP(B49,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>108.50685900000001</v>
+      </c>
+      <c r="G49" s="42">
+        <f t="shared" si="7"/>
+        <v>1.6374949607349532E-2</v>
+      </c>
+      <c r="H49" s="42">
+        <f t="shared" si="5"/>
+        <v>3.4904002125578426E-2</v>
+      </c>
+      <c r="I49" s="42">
+        <f t="shared" si="6"/>
+        <v>2.198083244145721E-3</v>
+      </c>
+      <c r="K49" s="42">
+        <f t="shared" si="10"/>
+        <v>8.793291413942389E-3</v>
+      </c>
+      <c r="L49" s="42">
+        <f t="shared" si="8"/>
+        <v>2.7131236332137369E-2</v>
+      </c>
+      <c r="M49" s="42">
+        <f t="shared" si="9"/>
+        <v>-1.057947008415459E-2</v>
+      </c>
+      <c r="Z49" s="47"/>
+    </row>
+    <row r="50" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>43344</v>
+      </c>
+      <c r="C50" s="2">
+        <f>VLOOKUP(B50,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>132.68544</v>
+      </c>
+      <c r="D50" s="2">
+        <v>79.770202999999995</v>
+      </c>
+      <c r="E50" s="2">
+        <f>VLOOKUP(B50,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>106.859077</v>
+      </c>
+      <c r="G50" s="42">
+        <f t="shared" si="7"/>
+        <v>3.2673418668861531E-2</v>
+      </c>
+      <c r="H50" s="42">
+        <f t="shared" si="5"/>
+        <v>3.3754813693256391E-3</v>
+      </c>
+      <c r="I50" s="42">
+        <f t="shared" si="6"/>
+        <v>-1.5185970870283949E-2</v>
+      </c>
+      <c r="K50" s="42">
+        <f t="shared" si="10"/>
+        <v>2.5091760475454389E-2</v>
+      </c>
+      <c r="L50" s="42">
+        <f t="shared" si="8"/>
+        <v>-4.3972844241154177E-3</v>
+      </c>
+      <c r="M50" s="42">
+        <f t="shared" si="9"/>
+        <v>-2.796352419858426E-2</v>
+      </c>
+      <c r="Z50" s="47"/>
+    </row>
+    <row r="51" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>43374</v>
+      </c>
+      <c r="C51" s="2">
+        <f>VLOOKUP(B51,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>134.43319700000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>84.993651999999997</v>
+      </c>
+      <c r="E51" s="2">
+        <f>VLOOKUP(B51,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>103.24155399999999</v>
+      </c>
+      <c r="G51" s="42">
+        <f t="shared" si="7"/>
+        <v>1.3172183775401525E-2</v>
+      </c>
+      <c r="H51" s="42">
+        <f t="shared" si="5"/>
+        <v>6.5481204805257986E-2</v>
+      </c>
+      <c r="I51" s="42">
+        <f t="shared" si="6"/>
+        <v>-3.3853212114119291E-2</v>
+      </c>
+      <c r="K51" s="42">
+        <f t="shared" si="10"/>
+        <v>5.5905255819943813E-3</v>
+      </c>
+      <c r="L51" s="42">
+        <f t="shared" si="8"/>
+        <v>5.770843901181693E-2</v>
+      </c>
+      <c r="M51" s="42">
+        <f t="shared" si="9"/>
+        <v>-4.6630765442419606E-2</v>
+      </c>
+      <c r="Z51" s="47"/>
+    </row>
+    <row r="52" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>43405</v>
+      </c>
+      <c r="C52" s="2">
+        <f>VLOOKUP(B52,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>141.06890899999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>91.381934999999999</v>
+      </c>
+      <c r="E52" s="2">
+        <f>VLOOKUP(B52,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>106.033913</v>
+      </c>
+      <c r="G52" s="42">
+        <f t="shared" si="7"/>
+        <v>4.9360664985152347E-2</v>
+      </c>
+      <c r="H52" s="42">
+        <f t="shared" si="5"/>
+        <v>7.5161883854573119E-2</v>
+      </c>
+      <c r="I52" s="42">
+        <f t="shared" si="6"/>
+        <v>2.7046851696943763E-2</v>
+      </c>
+      <c r="K52" s="42">
+        <f t="shared" si="10"/>
+        <v>4.1779006791745205E-2</v>
+      </c>
+      <c r="L52" s="42">
+        <f t="shared" si="8"/>
+        <v>6.7389118061132069E-2</v>
+      </c>
+      <c r="M52" s="42">
+        <f t="shared" si="9"/>
+        <v>1.4269298368643452E-2</v>
+      </c>
+      <c r="Z52" s="47"/>
+    </row>
+    <row r="53" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>43435</v>
+      </c>
+      <c r="C53" s="2">
+        <f>VLOOKUP(B53,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>124.716644</v>
+      </c>
+      <c r="D53" s="2">
+        <v>88.877655000000004</v>
+      </c>
+      <c r="E53" s="2">
+        <f>VLOOKUP(B53,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>93.093177999999995</v>
+      </c>
+      <c r="G53" s="42">
+        <f t="shared" si="7"/>
+        <v>-0.11591686017788649</v>
+      </c>
+      <c r="H53" s="42">
+        <f t="shared" si="5"/>
+        <v>-2.7404541171074936E-2</v>
+      </c>
+      <c r="I53" s="42">
+        <f t="shared" si="6"/>
+        <v>-0.12204335984469428</v>
+      </c>
+      <c r="K53" s="42">
+        <f t="shared" si="10"/>
+        <v>-0.12349851837129364</v>
+      </c>
+      <c r="L53" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.5177306964515993E-2</v>
+      </c>
+      <c r="M53" s="42">
+        <f t="shared" si="9"/>
+        <v>-0.13482091317299458</v>
+      </c>
+      <c r="Z53" s="47"/>
+    </row>
+    <row r="54" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>43466</v>
+      </c>
+      <c r="C54" s="2">
+        <f>VLOOKUP(B54,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>128.61132799999999</v>
+      </c>
+      <c r="D54" s="2">
+        <v>93.277061000000003</v>
+      </c>
+      <c r="E54" s="2">
+        <f>VLOOKUP(B54,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>98.700507999999999</v>
+      </c>
+      <c r="G54" s="42">
+        <f t="shared" si="7"/>
+        <v>3.122826172262938E-2</v>
+      </c>
+      <c r="H54" s="42">
+        <f t="shared" si="5"/>
+        <v>4.9499573317950407E-2</v>
+      </c>
+      <c r="I54" s="42">
+        <f t="shared" si="6"/>
+        <v>6.0233522159915953E-2</v>
+      </c>
+      <c r="K54" s="42">
+        <f t="shared" si="10"/>
+        <v>2.3646603529222238E-2</v>
+      </c>
+      <c r="L54" s="42">
+        <f t="shared" si="8"/>
+        <v>4.172680752450935E-2</v>
+      </c>
+      <c r="M54" s="42">
+        <f t="shared" si="9"/>
+        <v>4.7455968831615639E-2</v>
+      </c>
+      <c r="Z54" s="47"/>
+    </row>
+    <row r="55" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>43497</v>
+      </c>
+      <c r="C55" s="2">
+        <f>VLOOKUP(B55,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>132.051773</v>
+      </c>
+      <c r="D55" s="2">
+        <v>96.042090999999999</v>
+      </c>
+      <c r="E55" s="2">
+        <f>VLOOKUP(B55,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>100.328835</v>
+      </c>
+      <c r="G55" s="42">
+        <f t="shared" si="7"/>
+        <v>2.6750715146958148E-2</v>
+      </c>
+      <c r="H55" s="42">
+        <f t="shared" si="5"/>
+        <v>2.9643193839479887E-2</v>
+      </c>
+      <c r="I55" s="42">
+        <f t="shared" si="6"/>
+        <v>1.649765571621975E-2</v>
+      </c>
+      <c r="K55" s="42">
+        <f t="shared" si="10"/>
+        <v>1.9169056953551006E-2</v>
+      </c>
+      <c r="L55" s="42">
+        <f t="shared" si="8"/>
+        <v>2.187042804603883E-2</v>
+      </c>
+      <c r="M55" s="42">
+        <f t="shared" si="9"/>
+        <v>3.7201023879194391E-3</v>
+      </c>
+      <c r="Z55" s="47"/>
+    </row>
+    <row r="56" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>43525</v>
+      </c>
+      <c r="C56" s="2">
+        <f>VLOOKUP(B56,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>135.991974</v>
+      </c>
+      <c r="D56" s="2">
+        <v>101.40213</v>
+      </c>
+      <c r="E56" s="2">
+        <f>VLOOKUP(B56,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>97.319739999999996</v>
+      </c>
+      <c r="G56" s="42">
+        <f t="shared" si="7"/>
+        <v>2.9838304405045646E-2</v>
+      </c>
+      <c r="H56" s="42">
+        <f t="shared" si="5"/>
+        <v>5.5809270125116273E-2</v>
+      </c>
+      <c r="I56" s="42">
+        <f t="shared" si="6"/>
+        <v>-2.9992324738944753E-2</v>
+      </c>
+      <c r="K56" s="42">
+        <f t="shared" si="10"/>
+        <v>2.2256646211638503E-2</v>
+      </c>
+      <c r="L56" s="42">
+        <f t="shared" si="8"/>
+        <v>4.8036504331675216E-2</v>
+      </c>
+      <c r="M56" s="42">
+        <f t="shared" si="9"/>
+        <v>-4.2769878067245068E-2</v>
+      </c>
+      <c r="Z56" s="47"/>
+    </row>
+    <row r="57" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C57" s="2">
+        <f>VLOOKUP(B57,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>137.36367799999999</v>
+      </c>
+      <c r="D57" s="2">
+        <v>103.77029400000001</v>
+      </c>
+      <c r="E57" s="2">
+        <f>VLOOKUP(B57,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>111.56727600000001</v>
+      </c>
+      <c r="G57" s="42">
+        <f t="shared" si="7"/>
+        <v>1.0086654084453528E-2</v>
+      </c>
+      <c r="H57" s="42">
+        <f t="shared" si="5"/>
+        <v>2.3354183980158982E-2</v>
+      </c>
+      <c r="I57" s="42">
+        <f t="shared" si="6"/>
+        <v>0.14639924027746076</v>
+      </c>
+      <c r="K57" s="42">
+        <f t="shared" si="10"/>
+        <v>2.5049958910463846E-3</v>
+      </c>
+      <c r="L57" s="42">
+        <f t="shared" si="8"/>
+        <v>1.5581418186717926E-2</v>
+      </c>
+      <c r="M57" s="42">
+        <f t="shared" si="9"/>
+        <v>0.13362168694916046</v>
+      </c>
+      <c r="Z57" s="47"/>
+    </row>
+    <row r="58" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C58" s="2">
+        <f>VLOOKUP(B58,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>127.58674600000001</v>
+      </c>
+      <c r="D58" s="2">
+        <v>100.99904600000001</v>
+      </c>
+      <c r="E58" s="2">
+        <f>VLOOKUP(B58,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>102.646507</v>
+      </c>
+      <c r="G58" s="42">
+        <f t="shared" si="7"/>
+        <v>-7.1175525745604928E-2</v>
+      </c>
+      <c r="H58" s="42">
+        <f t="shared" si="5"/>
+        <v>-2.6705600352254999E-2</v>
+      </c>
+      <c r="I58" s="42">
+        <f t="shared" si="6"/>
+        <v>-7.9958652033415345E-2</v>
+      </c>
+      <c r="K58" s="42">
+        <f t="shared" si="10"/>
+        <v>-7.8757183939012071E-2</v>
+      </c>
+      <c r="L58" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.4478366145696056E-2</v>
+      </c>
+      <c r="M58" s="42">
+        <f t="shared" si="9"/>
+        <v>-9.273620536171566E-2</v>
+      </c>
+      <c r="Z58" s="47"/>
+    </row>
+    <row r="59" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>43617</v>
+      </c>
+      <c r="C59" s="2">
+        <f>VLOOKUP(B59,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>136.42297400000001</v>
+      </c>
+      <c r="D59" s="2">
+        <v>107.613884</v>
+      </c>
+      <c r="E59" s="2">
+        <f>VLOOKUP(B59,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>108.30387899999999</v>
+      </c>
+      <c r="G59" s="42">
+        <f t="shared" si="7"/>
+        <v>6.9256629524825364E-2</v>
+      </c>
+      <c r="H59" s="42">
+        <f t="shared" si="5"/>
+        <v>6.5494064171655486E-2</v>
+      </c>
+      <c r="I59" s="42">
+        <f t="shared" si="6"/>
+        <v>5.5115095148829507E-2</v>
+      </c>
+      <c r="K59" s="42">
+        <f t="shared" si="10"/>
+        <v>6.1674971331418221E-2</v>
+      </c>
+      <c r="L59" s="42">
+        <f t="shared" si="8"/>
+        <v>5.7721298378214429E-2</v>
+      </c>
+      <c r="M59" s="42">
+        <f t="shared" si="9"/>
+        <v>4.2337541820529193E-2</v>
+      </c>
+      <c r="Z59" s="47"/>
+    </row>
+    <row r="60" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>43647</v>
+      </c>
+      <c r="C60" s="2">
+        <f>VLOOKUP(B60,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>127.54882000000001</v>
+      </c>
+      <c r="D60" s="2">
+        <v>115.848091</v>
+      </c>
+      <c r="E60" s="2">
+        <f>VLOOKUP(B60,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>112.372536</v>
+      </c>
+      <c r="G60" s="42">
+        <f t="shared" si="7"/>
+        <v>-6.5048823814675139E-2</v>
+      </c>
+      <c r="H60" s="42">
+        <f t="shared" si="5"/>
+        <v>7.6516214208939726E-2</v>
+      </c>
+      <c r="I60" s="42">
+        <f t="shared" si="6"/>
+        <v>3.7567047806293274E-2</v>
+      </c>
+      <c r="K60" s="42">
+        <f t="shared" si="10"/>
+        <v>-7.2630482008082281E-2</v>
+      </c>
+      <c r="L60" s="42">
+        <f t="shared" si="8"/>
+        <v>6.8743448415498676E-2</v>
+      </c>
+      <c r="M60" s="42">
+        <f t="shared" si="9"/>
+        <v>2.4789494477992963E-2</v>
+      </c>
+      <c r="Z60" s="47"/>
+    </row>
+    <row r="61" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>43678</v>
+      </c>
+      <c r="C61" s="2">
+        <f>VLOOKUP(B61,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>125.726967</v>
+      </c>
+      <c r="D61" s="2">
+        <v>118.761475</v>
+      </c>
+      <c r="E61" s="2">
+        <f>VLOOKUP(B61,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>107.17800099999999</v>
+      </c>
+      <c r="G61" s="42">
+        <f t="shared" si="7"/>
+        <v>-1.4283573928790649E-2</v>
+      </c>
+      <c r="H61" s="42">
+        <f t="shared" si="5"/>
+        <v>2.5148312543190832E-2</v>
+      </c>
+      <c r="I61" s="42">
+        <f t="shared" si="6"/>
+        <v>-4.6226019140477526E-2</v>
+      </c>
+      <c r="K61" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.1865232122197792E-2</v>
+      </c>
+      <c r="L61" s="42">
+        <f t="shared" si="8"/>
+        <v>1.7375546749749775E-2</v>
+      </c>
+      <c r="M61" s="42">
+        <f t="shared" si="9"/>
+        <v>-5.900357246877784E-2</v>
+      </c>
+      <c r="Z61" s="47"/>
+    </row>
+    <row r="62" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>43709</v>
+      </c>
+      <c r="C62" s="2">
+        <f>VLOOKUP(B62,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>127.67564400000001</v>
+      </c>
+      <c r="D62" s="2">
+        <v>122.86077899999999</v>
+      </c>
+      <c r="E62" s="2">
+        <f>VLOOKUP(B62,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>114.816841</v>
+      </c>
+      <c r="G62" s="42">
+        <f t="shared" si="7"/>
+        <v>1.5499276300843245E-2</v>
+      </c>
+      <c r="H62" s="42">
+        <f t="shared" si="5"/>
+        <v>3.4517119293103971E-2</v>
+      </c>
+      <c r="I62" s="42">
+        <f t="shared" si="6"/>
+        <v>7.1272461967265111E-2</v>
+      </c>
+      <c r="K62" s="42">
+        <f t="shared" si="10"/>
+        <v>7.9176181074361029E-3</v>
+      </c>
+      <c r="L62" s="42">
+        <f t="shared" si="8"/>
+        <v>2.6744353499662914E-2</v>
+      </c>
+      <c r="M62" s="42">
+        <f t="shared" si="9"/>
+        <v>5.8494908638964796E-2</v>
+      </c>
+      <c r="Z62" s="47"/>
+    </row>
+    <row r="63" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>43739</v>
+      </c>
+      <c r="C63" s="2">
+        <f>VLOOKUP(B63,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>130.30059800000001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>122.989197</v>
+      </c>
+      <c r="E63" s="2">
+        <f>VLOOKUP(B63,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>121.87033099999999</v>
+      </c>
+      <c r="G63" s="42">
+        <f t="shared" si="7"/>
+        <v>2.0559551671421428E-2</v>
+      </c>
+      <c r="H63" s="42">
+        <f t="shared" si="5"/>
+        <v>1.0452318554809992E-3</v>
+      </c>
+      <c r="I63" s="42">
+        <f t="shared" si="6"/>
+        <v>6.1432538454877061E-2</v>
+      </c>
+      <c r="K63" s="42">
+        <f t="shared" si="10"/>
+        <v>1.2977893478014285E-2</v>
+      </c>
+      <c r="L63" s="42">
+        <f t="shared" si="8"/>
+        <v>-6.7275339379600577E-3</v>
+      </c>
+      <c r="M63" s="42">
+        <f t="shared" si="9"/>
+        <v>4.8654985126576747E-2</v>
+      </c>
+      <c r="Z63" s="47"/>
+    </row>
+    <row r="64" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>43770</v>
+      </c>
+      <c r="C64" s="2">
+        <f>VLOOKUP(B64,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>135.67881800000001</v>
+      </c>
+      <c r="D64" s="2">
+        <v>121.339195</v>
+      </c>
+      <c r="E64" s="2">
+        <f>VLOOKUP(B64,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>129.573059</v>
+      </c>
+      <c r="G64" s="42">
+        <f t="shared" si="7"/>
+        <v>4.1275482097173466E-2</v>
+      </c>
+      <c r="H64" s="42">
+        <f t="shared" si="5"/>
+        <v>-1.3415828708923105E-2</v>
+      </c>
+      <c r="I64" s="42">
+        <f t="shared" si="6"/>
+        <v>6.3204292109455329E-2</v>
+      </c>
+      <c r="K64" s="42">
+        <f t="shared" si="10"/>
+        <v>3.3693823903766323E-2</v>
+      </c>
+      <c r="L64" s="42">
+        <f t="shared" si="8"/>
+        <v>-2.1188594502364162E-2</v>
+      </c>
+      <c r="M64" s="42">
+        <f t="shared" si="9"/>
+        <v>5.0426738781155014E-2</v>
+      </c>
+      <c r="Z64" s="47"/>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>43800</v>
+      </c>
+      <c r="C65" s="2">
+        <f>VLOOKUP(B65,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>144.94572400000001</v>
+      </c>
+      <c r="D65" s="2">
+        <v>124.16242200000001</v>
+      </c>
+      <c r="E65" s="2">
+        <f>VLOOKUP(B65,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>137.08625799999999</v>
+      </c>
+      <c r="G65" s="42">
+        <f t="shared" si="7"/>
+        <v>6.8300314939359286E-2</v>
+      </c>
+      <c r="H65" s="42">
+        <f t="shared" si="5"/>
+        <v>2.3267230345479062E-2</v>
+      </c>
+      <c r="I65" s="42">
+        <f t="shared" si="6"/>
+        <v>5.7984268164881225E-2</v>
+      </c>
+      <c r="K65" s="42">
+        <f t="shared" si="10"/>
+        <v>6.0718656745952143E-2</v>
+      </c>
+      <c r="L65" s="42">
+        <f t="shared" si="8"/>
+        <v>1.5494464552038005E-2</v>
+      </c>
+      <c r="M65" s="42">
+        <f t="shared" si="9"/>
+        <v>4.5206714836580911E-2</v>
+      </c>
+      <c r="Z65" s="47"/>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>43831</v>
+      </c>
+      <c r="C66" s="2">
+        <f>VLOOKUP(B66,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>147.92671200000001</v>
+      </c>
+      <c r="D66" s="2">
+        <v>123.884079</v>
+      </c>
+      <c r="E66" s="2">
+        <f>VLOOKUP(B66,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>130.16310100000001</v>
+      </c>
+      <c r="G66" s="42">
+        <f t="shared" ref="G66:G68" si="12">IFERROR(C66/C65-1,"")</f>
+        <v>2.0566236227844925E-2</v>
+      </c>
+      <c r="H66" s="42">
+        <f t="shared" ref="H66:H68" si="13">IFERROR(D66/D65-1,"")</f>
+        <v>-2.2417652258749365E-3</v>
+      </c>
+      <c r="I66" s="42">
+        <f t="shared" ref="I66:I68" si="14">IFERROR(E66/E65-1,"")</f>
+        <v>-5.0502195486289869E-2</v>
+      </c>
+      <c r="K66" s="42">
+        <f t="shared" si="10"/>
+        <v>1.2984578034437783E-2</v>
+      </c>
+      <c r="L66" s="42">
+        <f t="shared" si="8"/>
+        <v>-1.0014531019315993E-2</v>
+      </c>
+      <c r="M66" s="42">
+        <f t="shared" si="9"/>
+        <v>-6.3279748814590184E-2</v>
+      </c>
+      <c r="Z66" s="47"/>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>43862</v>
+      </c>
+      <c r="C67" s="2">
+        <f>VLOOKUP(B67,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>133.62789900000001</v>
+      </c>
+      <c r="D67" s="2">
+        <v>113.230003</v>
+      </c>
+      <c r="E67" s="2">
+        <f>VLOOKUP(B67,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>114.915863</v>
+      </c>
+      <c r="G67" s="42">
+        <f t="shared" si="12"/>
+        <v>-9.6661467064853013E-2</v>
+      </c>
+      <c r="H67" s="42">
+        <f t="shared" si="13"/>
+        <v>-8.6000364905646998E-2</v>
+      </c>
+      <c r="I67" s="42">
+        <f t="shared" si="14"/>
+        <v>-0.11713948025869492</v>
+      </c>
+      <c r="K67" s="42">
+        <f t="shared" si="10"/>
+        <v>-0.10424312525826016</v>
+      </c>
+      <c r="L67" s="42">
+        <f t="shared" si="8"/>
+        <v>-9.3773130699088048E-2</v>
+      </c>
+      <c r="M67" s="42">
+        <f t="shared" si="9"/>
+        <v>-0.12991703358699522</v>
+      </c>
+      <c r="Z67" s="47"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C68" s="2">
+        <f>VLOOKUP(B68,'[2]JNJ (1)'!$A:$F,COLUMNS('[2]JNJ (1)'!$A$1:$F$1),FALSE)</f>
+        <v>131.13000500000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>110</v>
+      </c>
+      <c r="E68" s="2">
+        <f>VLOOKUP(B68,[1]JPM!$A:$F,COLUMNS([1]JPM!$A$1:$F$1),FALSE)</f>
+        <v>89.104079999999996</v>
+      </c>
+      <c r="G68" s="42">
+        <f t="shared" si="12"/>
+        <v>-1.8692907833565475E-2</v>
+      </c>
+      <c r="H68" s="42">
+        <f t="shared" si="13"/>
+        <v>-2.8526034747168527E-2</v>
+      </c>
+      <c r="I68" s="42">
+        <f t="shared" si="14"/>
+        <v>-0.22461462087266404</v>
+      </c>
+      <c r="K68" s="42">
+        <f t="shared" si="10"/>
+        <v>-2.6274566026972618E-2</v>
+      </c>
+      <c r="L68" s="42">
+        <f t="shared" si="8"/>
+        <v>-3.6298800540609584E-2</v>
+      </c>
+      <c r="M68" s="42">
+        <f t="shared" si="9"/>
+        <v>-0.23739217420096434</v>
+      </c>
+      <c r="Z68" s="47"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>